--- a/data/Pre-Filtered/ratings_data.xlsx
+++ b/data/Pre-Filtered/ratings_data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/coursework/Recommender/data/Pre-Filtered/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8604CDA-16A4-1347-B5D7-94E8E9C0F8A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AC222F-C3D7-DB48-945C-B65F8E78DCAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="460" windowWidth="24180" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="27320" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ContextualRating" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="RatingNew" localSheetId="0">ContextualRating!$A$1:$K$515</definedName>
+    <definedName name="RatingNew" localSheetId="0">ContextualRating!$A$1:$K$508</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,10 +54,6 @@
     </textPr>
   </connection>
 </connections>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D505"/>
+  <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:R515"/>
+    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
+      <selection activeCell="A464" sqref="A464:XFD464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -457,80 +453,80 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="B1">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="B2">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="B3">
-        <v>674</v>
+        <v>249</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="B4">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="B5">
-        <v>694</v>
+        <v>250</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1002</v>
+        <v>1016</v>
       </c>
       <c r="B6">
-        <v>715</v>
+        <v>250</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -541,13 +537,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1002</v>
+        <v>1032</v>
       </c>
       <c r="B7">
-        <v>751</v>
+        <v>250</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -555,16 +551,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B8">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -572,220 +568,220 @@
         <v>1002</v>
       </c>
       <c r="B9">
-        <v>743</v>
+        <v>251</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="B10">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="B11">
-        <v>748</v>
+        <v>251</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="B12">
-        <v>719</v>
+        <v>251</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1002</v>
+        <v>1012</v>
       </c>
       <c r="B13">
-        <v>737</v>
+        <v>251</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1002</v>
+        <v>1023</v>
       </c>
       <c r="B14">
-        <v>726</v>
+        <v>251</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1002</v>
+        <v>1025</v>
       </c>
       <c r="B15">
-        <v>690</v>
+        <v>251</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1002</v>
+        <v>1033</v>
       </c>
       <c r="B16">
-        <v>744</v>
+        <v>251</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1002</v>
+        <v>1036</v>
       </c>
       <c r="B17">
-        <v>732</v>
+        <v>251</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1002</v>
+        <v>1011</v>
       </c>
       <c r="B18">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="B19">
-        <v>743</v>
+        <v>252</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1002</v>
+        <v>1023</v>
       </c>
       <c r="B20">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1003</v>
+        <v>1028</v>
       </c>
       <c r="B21">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1003</v>
+        <v>1028</v>
       </c>
       <c r="B22">
-        <v>762</v>
+        <v>252</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1003</v>
+        <v>1032</v>
       </c>
       <c r="B23">
-        <v>711</v>
+        <v>252</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1003</v>
+        <v>1032</v>
       </c>
       <c r="B24">
-        <v>739</v>
+        <v>252</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -793,24 +789,24 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1004</v>
+        <v>1023</v>
       </c>
       <c r="B25">
-        <v>701</v>
+        <v>253</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B26">
-        <v>677</v>
+        <v>254</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -821,41 +817,41 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1005</v>
+        <v>1022</v>
       </c>
       <c r="B27">
-        <v>707</v>
+        <v>254</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1005</v>
+        <v>1031</v>
       </c>
       <c r="B28">
-        <v>747</v>
+        <v>254</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1005</v>
+        <v>1035</v>
       </c>
       <c r="B29">
-        <v>721</v>
+        <v>254</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -863,27 +859,27 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B30">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="B31">
-        <v>758</v>
+        <v>256</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -891,41 +887,41 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="B32">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1005</v>
+        <v>1040</v>
       </c>
       <c r="B33">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1005</v>
+        <v>1040</v>
       </c>
       <c r="B34">
-        <v>737</v>
+        <v>258</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -936,24 +932,24 @@
         <v>1006</v>
       </c>
       <c r="B35">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B36">
-        <v>734</v>
+        <v>259</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -961,44 +957,44 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B37">
-        <v>736</v>
+        <v>259</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="B38">
-        <v>695</v>
+        <v>259</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1006</v>
+        <v>1024</v>
       </c>
       <c r="B39">
-        <v>674</v>
+        <v>259</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1006,41 +1002,41 @@
         <v>1006</v>
       </c>
       <c r="B40">
-        <v>712</v>
+        <v>260</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B41">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="B42">
-        <v>732</v>
+        <v>260</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1048,35 +1044,35 @@
         <v>1006</v>
       </c>
       <c r="B43">
-        <v>686</v>
+        <v>261</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1006</v>
+        <v>1033</v>
       </c>
       <c r="B44">
-        <v>729</v>
+        <v>261</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1006</v>
+        <v>1036</v>
       </c>
       <c r="B45">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1090,7 +1086,7 @@
         <v>1006</v>
       </c>
       <c r="B46">
-        <v>711</v>
+        <v>262</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1104,35 +1100,35 @@
         <v>1006</v>
       </c>
       <c r="B47">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B48">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1006</v>
+        <v>1032</v>
       </c>
       <c r="B49">
-        <v>761</v>
+        <v>262</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1143,27 +1139,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B50">
-        <v>699</v>
+        <v>263</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="B51">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -1171,13 +1167,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1006</v>
+        <v>1033</v>
       </c>
       <c r="B52">
-        <v>687</v>
+        <v>265</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -1188,10 +1184,10 @@
         <v>1006</v>
       </c>
       <c r="B53">
-        <v>697</v>
+        <v>266</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -1199,27 +1195,27 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B54">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B55">
-        <v>757</v>
+        <v>266</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -1227,41 +1223,41 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B56">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1006</v>
+        <v>1026</v>
       </c>
       <c r="B57">
-        <v>745</v>
+        <v>266</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1006</v>
+        <v>1026</v>
       </c>
       <c r="B58">
-        <v>759</v>
+        <v>266</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1269,10 +1265,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B59">
-        <v>753</v>
+        <v>267</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1286,80 +1282,80 @@
         <v>1006</v>
       </c>
       <c r="B60">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B61">
-        <v>724</v>
+        <v>267</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B62">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B63">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="B64">
-        <v>686</v>
+        <v>268</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="B65">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1367,16 +1363,16 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B66">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1384,10 +1380,10 @@
         <v>1006</v>
       </c>
       <c r="B67">
-        <v>680</v>
+        <v>270</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1395,139 +1391,139 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1006</v>
+        <v>1037</v>
       </c>
       <c r="B68">
-        <v>711</v>
+        <v>270</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B69">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1006</v>
+        <v>1036</v>
       </c>
       <c r="B70">
-        <v>725</v>
+        <v>271</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B71">
-        <v>718</v>
+        <v>272</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B72">
-        <v>692</v>
+        <v>272</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B73">
-        <v>709</v>
+        <v>273</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B74">
-        <v>745</v>
+        <v>273</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="B75">
-        <v>704</v>
+        <v>273</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="B76">
-        <v>676</v>
+        <v>273</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="B77">
-        <v>683</v>
+        <v>273</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -1535,55 +1531,55 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B78">
-        <v>686</v>
+        <v>274</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B79">
-        <v>739</v>
+        <v>274</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="B80">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="C80">
         <v>4</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="B81">
-        <v>739</v>
+        <v>275</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -1591,10 +1587,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>1008</v>
+        <v>1033</v>
       </c>
       <c r="B82">
-        <v>691</v>
+        <v>275</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1605,83 +1601,83 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B83">
-        <v>721</v>
+        <v>276</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B84">
-        <v>695</v>
+        <v>276</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>1008</v>
+        <v>1019</v>
       </c>
       <c r="B85">
-        <v>746</v>
+        <v>276</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>1008</v>
+        <v>1019</v>
       </c>
       <c r="B86">
-        <v>727</v>
+        <v>276</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>1008</v>
+        <v>1019</v>
       </c>
       <c r="B87">
-        <v>689</v>
+        <v>276</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>1008</v>
+        <v>1019</v>
       </c>
       <c r="B88">
-        <v>711</v>
+        <v>276</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -1689,13 +1685,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>1008</v>
+        <v>1019</v>
       </c>
       <c r="B89">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -1703,27 +1699,27 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1008</v>
+        <v>1026</v>
       </c>
       <c r="B90">
-        <v>746</v>
+        <v>276</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>1008</v>
+        <v>1033</v>
       </c>
       <c r="B91">
-        <v>695</v>
+        <v>276</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -1731,16 +1727,16 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B92">
-        <v>701</v>
+        <v>277</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1748,80 +1744,80 @@
         <v>1009</v>
       </c>
       <c r="B93">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="B94">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="B95">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="B96">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>1009</v>
+        <v>1033</v>
       </c>
       <c r="B97">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B98">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -1829,44 +1825,44 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="B99">
-        <v>717</v>
+        <v>279</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="B100">
-        <v>743</v>
+        <v>279</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="B101">
-        <v>714</v>
+        <v>280</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -1874,55 +1870,55 @@
         <v>1009</v>
       </c>
       <c r="B102">
-        <v>762</v>
+        <v>281</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="B103">
-        <v>733</v>
+        <v>281</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="B104">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="B105">
-        <v>686</v>
+        <v>281</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -1930,38 +1926,38 @@
         <v>1009</v>
       </c>
       <c r="B106">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="B107">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="B108">
-        <v>749</v>
+        <v>282</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -1969,55 +1965,55 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="B109">
-        <v>762</v>
+        <v>282</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>1009</v>
+        <v>1033</v>
       </c>
       <c r="B110">
-        <v>706</v>
+        <v>282</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="B111">
-        <v>716</v>
+        <v>283</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="B112">
-        <v>692</v>
+        <v>283</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -2025,58 +2021,58 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="B113">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="B114">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C114">
         <v>4</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>1009</v>
+        <v>1029</v>
       </c>
       <c r="B115">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>1009</v>
+        <v>1033</v>
       </c>
       <c r="B116">
-        <v>728</v>
+        <v>283</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -2084,10 +2080,10 @@
         <v>1009</v>
       </c>
       <c r="B117">
-        <v>678</v>
+        <v>284</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -2095,10 +2091,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="B118">
-        <v>731</v>
+        <v>284</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -2109,72 +2105,72 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="B119">
-        <v>759</v>
+        <v>284</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="B120">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>1009</v>
+        <v>1033</v>
       </c>
       <c r="B121">
-        <v>689</v>
+        <v>284</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>1009</v>
+        <v>1035</v>
       </c>
       <c r="B122">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>1009</v>
+        <v>1039</v>
       </c>
       <c r="B123">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -2182,13 +2178,13 @@
         <v>1009</v>
       </c>
       <c r="B124">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -2196,10 +2192,10 @@
         <v>1009</v>
       </c>
       <c r="B125">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -2207,142 +2203,142 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="B126">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="B127">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="B128">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>1009</v>
+        <v>1041</v>
       </c>
       <c r="B129">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B130">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C130">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B131">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="B132">
-        <v>725</v>
+        <v>286</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>1009</v>
+        <v>1033</v>
       </c>
       <c r="B133">
-        <v>733</v>
+        <v>286</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="B134">
-        <v>741</v>
+        <v>287</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>1009</v>
+        <v>1033</v>
       </c>
       <c r="B135">
-        <v>707</v>
+        <v>287</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -2350,10 +2346,10 @@
         <v>1009</v>
       </c>
       <c r="B136">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -2361,13 +2357,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="B137">
-        <v>713</v>
+        <v>288</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D137">
         <v>3</v>
@@ -2375,13 +2371,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>1010</v>
+        <v>1019</v>
       </c>
       <c r="B138">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -2389,41 +2385,41 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>1010</v>
+        <v>1019</v>
       </c>
       <c r="B139">
-        <v>755</v>
+        <v>288</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>1010</v>
+        <v>1036</v>
       </c>
       <c r="B140">
-        <v>731</v>
+        <v>288</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B141">
-        <v>755</v>
+        <v>289</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -2431,38 +2427,38 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="B142">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="C142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>1011</v>
+        <v>1033</v>
       </c>
       <c r="B143">
-        <v>686</v>
+        <v>290</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B144">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="C144">
         <v>4</v>
@@ -2473,44 +2469,44 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>1012</v>
+        <v>1025</v>
       </c>
       <c r="B145">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D145">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>1012</v>
+        <v>1033</v>
       </c>
       <c r="B146">
-        <v>744</v>
+        <v>291</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>1012</v>
+        <v>1035</v>
       </c>
       <c r="B147">
-        <v>756</v>
+        <v>291</v>
       </c>
       <c r="C147">
         <v>2</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -2518,13 +2514,13 @@
         <v>1012</v>
       </c>
       <c r="B148">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -2532,24 +2528,24 @@
         <v>1012</v>
       </c>
       <c r="B149">
-        <v>691</v>
+        <v>292</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="B150">
-        <v>690</v>
+        <v>292</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D150">
         <v>3</v>
@@ -2557,30 +2553,30 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>1012</v>
+        <v>1033</v>
       </c>
       <c r="B151">
-        <v>725</v>
+        <v>292</v>
       </c>
       <c r="C151">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B152">
-        <v>709</v>
+        <v>293</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -2588,7 +2584,7 @@
         <v>1012</v>
       </c>
       <c r="B153">
-        <v>682</v>
+        <v>293</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -2599,27 +2595,27 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="B154">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="B155">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D155">
         <v>2</v>
@@ -2627,41 +2623,41 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B156">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B157">
-        <v>750</v>
+        <v>294</v>
       </c>
       <c r="C157">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>1012</v>
+        <v>1037</v>
       </c>
       <c r="B158">
-        <v>718</v>
+        <v>295</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D158">
         <v>2</v>
@@ -2669,41 +2665,41 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="B159">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="B160">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>1012</v>
+        <v>1036</v>
       </c>
       <c r="B161">
-        <v>736</v>
+        <v>297</v>
       </c>
       <c r="C161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D161">
         <v>2</v>
@@ -2711,13 +2707,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="B162">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D162">
         <v>2</v>
@@ -2725,24 +2721,24 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="B163">
-        <v>273</v>
+        <v>674</v>
       </c>
       <c r="C163">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>1012</v>
+        <v>1035</v>
       </c>
       <c r="B164">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -2753,58 +2749,58 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="B165">
-        <v>743</v>
+        <v>675</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>1012</v>
+        <v>1032</v>
       </c>
       <c r="B166">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>1012</v>
+        <v>1033</v>
       </c>
       <c r="B167">
-        <v>706</v>
+        <v>675</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="B168">
-        <v>757</v>
+        <v>676</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -2812,63 +2808,63 @@
         <v>1012</v>
       </c>
       <c r="B169">
-        <v>729</v>
+        <v>676</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="B170">
-        <v>731</v>
+        <v>676</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>1012</v>
+        <v>1033</v>
       </c>
       <c r="B171">
-        <v>256</v>
+        <v>676</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="B172">
-        <v>292</v>
+        <v>677</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B173">
-        <v>272</v>
+        <v>678</v>
       </c>
       <c r="C173">
         <v>2</v>
@@ -2879,10 +2875,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="B174">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -2893,55 +2889,55 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>1012</v>
+        <v>1022</v>
       </c>
       <c r="B175">
-        <v>282</v>
+        <v>678</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>1012</v>
+        <v>1036</v>
       </c>
       <c r="B176">
-        <v>741</v>
+        <v>678</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="B177">
-        <v>284</v>
+        <v>680</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="B178">
-        <v>284</v>
+        <v>680</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -2949,55 +2945,55 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>1012</v>
+        <v>1023</v>
       </c>
       <c r="B179">
-        <v>728</v>
+        <v>680</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>1012</v>
+        <v>1036</v>
       </c>
       <c r="B180">
-        <v>266</v>
+        <v>680</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>1012</v>
+        <v>1036</v>
       </c>
       <c r="B181">
-        <v>733</v>
+        <v>680</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>1012</v>
+        <v>1037</v>
       </c>
       <c r="B182">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -3005,66 +3001,66 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="B183">
-        <v>741</v>
+        <v>681</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>1012</v>
+        <v>1027</v>
       </c>
       <c r="B184">
-        <v>754</v>
+        <v>681</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>1014</v>
+        <v>1027</v>
       </c>
       <c r="B185">
-        <v>294</v>
+        <v>681</v>
       </c>
       <c r="C185">
         <v>4</v>
       </c>
       <c r="D185">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>1014</v>
+        <v>1033</v>
       </c>
       <c r="B186">
-        <v>752</v>
+        <v>681</v>
       </c>
       <c r="C186">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D186">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B187">
-        <v>285</v>
+        <v>682</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -3075,10 +3071,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="B188">
-        <v>275</v>
+        <v>682</v>
       </c>
       <c r="C188">
         <v>4</v>
@@ -3089,41 +3085,41 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>1014</v>
+        <v>1032</v>
       </c>
       <c r="B189">
-        <v>279</v>
+        <v>682</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>1014</v>
+        <v>1033</v>
       </c>
       <c r="B190">
-        <v>742</v>
+        <v>682</v>
       </c>
       <c r="C190">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>1015</v>
+        <v>1042</v>
       </c>
       <c r="B191">
-        <v>733</v>
+        <v>682</v>
       </c>
       <c r="C191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D191">
         <v>2</v>
@@ -3131,55 +3127,55 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>1015</v>
+        <v>1042</v>
       </c>
       <c r="B192">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="B193">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="C193">
         <v>3</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B194">
-        <v>250</v>
+        <v>683</v>
       </c>
       <c r="C194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D194">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="B195">
-        <v>744</v>
+        <v>683</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -3187,55 +3183,55 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="B196">
-        <v>288</v>
+        <v>683</v>
       </c>
       <c r="C196">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D196">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>1018</v>
+        <v>1035</v>
       </c>
       <c r="B197">
-        <v>709</v>
+        <v>683</v>
       </c>
       <c r="C197">
         <v>2</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B198">
-        <v>733</v>
+        <v>684</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B199">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -3243,27 +3239,27 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="B200">
-        <v>711</v>
+        <v>684</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>1018</v>
+        <v>1032</v>
       </c>
       <c r="B201">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -3271,13 +3267,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="B202">
-        <v>276</v>
+        <v>684</v>
       </c>
       <c r="C202">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D202">
         <v>3</v>
@@ -3285,16 +3281,16 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>1019</v>
+        <v>1038</v>
       </c>
       <c r="B203">
-        <v>748</v>
+        <v>684</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -3302,35 +3298,35 @@
         <v>1019</v>
       </c>
       <c r="B204">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D204">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>1019</v>
+        <v>1036</v>
       </c>
       <c r="B205">
-        <v>720</v>
+        <v>685</v>
       </c>
       <c r="C205">
         <v>2</v>
       </c>
       <c r="D205">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="B206">
-        <v>722</v>
+        <v>686</v>
       </c>
       <c r="C206">
         <v>2</v>
@@ -3341,27 +3337,27 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="B207">
-        <v>741</v>
+        <v>686</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D207">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="B208">
-        <v>760</v>
+        <v>686</v>
       </c>
       <c r="C208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D208">
         <v>3</v>
@@ -3369,10 +3365,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="B209">
-        <v>719</v>
+        <v>686</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -3383,27 +3379,27 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="B210">
-        <v>714</v>
+        <v>686</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D210">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="B211">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D211">
         <v>3</v>
@@ -3411,30 +3407,30 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="B212">
-        <v>759</v>
+        <v>686</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="B213">
-        <v>285</v>
+        <v>687</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -3442,10 +3438,10 @@
         <v>1019</v>
       </c>
       <c r="B214">
-        <v>292</v>
+        <v>687</v>
       </c>
       <c r="C214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D214">
         <v>3</v>
@@ -3453,16 +3449,16 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>1019</v>
+        <v>1030</v>
       </c>
       <c r="B215">
-        <v>284</v>
+        <v>687</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -3470,7 +3466,7 @@
         <v>1019</v>
       </c>
       <c r="B216">
-        <v>286</v>
+        <v>688</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -3484,24 +3480,24 @@
         <v>1019</v>
       </c>
       <c r="B217">
-        <v>747</v>
+        <v>688</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="B218">
-        <v>710</v>
+        <v>688</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D218">
         <v>3</v>
@@ -3509,44 +3505,44 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>1019</v>
+        <v>1036</v>
       </c>
       <c r="B219">
-        <v>762</v>
+        <v>688</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="B220">
-        <v>268</v>
+        <v>689</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="B221">
-        <v>729</v>
+        <v>689</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -3554,63 +3550,63 @@
         <v>1019</v>
       </c>
       <c r="B222">
-        <v>273</v>
+        <v>689</v>
       </c>
       <c r="C222">
         <v>5</v>
       </c>
       <c r="D222">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="B223">
-        <v>728</v>
+        <v>689</v>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D223">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="B224">
-        <v>283</v>
+        <v>689</v>
       </c>
       <c r="C224">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D224">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="B225">
-        <v>722</v>
+        <v>690</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="B226">
-        <v>736</v>
+        <v>690</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -3621,66 +3617,66 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="B227">
-        <v>712</v>
+        <v>690</v>
       </c>
       <c r="C227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>1019</v>
+        <v>1029</v>
       </c>
       <c r="B228">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C228">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="B229">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="B230">
-        <v>754</v>
+        <v>691</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="B231">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -3691,41 +3687,41 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>1019</v>
+        <v>1036</v>
       </c>
       <c r="B232">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="B233">
-        <v>753</v>
+        <v>692</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="B234">
-        <v>283</v>
+        <v>692</v>
       </c>
       <c r="C234">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D234">
         <v>2</v>
@@ -3733,52 +3729,52 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="B235">
-        <v>723</v>
+        <v>692</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="B236">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>1019</v>
+        <v>1038</v>
       </c>
       <c r="B237">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="B238">
-        <v>287</v>
+        <v>693</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -3792,10 +3788,10 @@
         <v>1019</v>
       </c>
       <c r="B239">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
         <v>2</v>
@@ -3803,16 +3799,16 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>1019</v>
+        <v>1001</v>
       </c>
       <c r="B240">
-        <v>260</v>
+        <v>694</v>
       </c>
       <c r="C240">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -3820,52 +3816,52 @@
         <v>1019</v>
       </c>
       <c r="B241">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="B242">
-        <v>276</v>
+        <v>694</v>
       </c>
       <c r="C242">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D242">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="B243">
-        <v>727</v>
+        <v>695</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D243">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="B244">
-        <v>252</v>
+        <v>695</v>
       </c>
       <c r="C244">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D244">
         <v>2</v>
@@ -3873,16 +3869,16 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="B245">
-        <v>273</v>
+        <v>695</v>
       </c>
       <c r="C245">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -3890,7 +3886,7 @@
         <v>1019</v>
       </c>
       <c r="B246">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -3901,41 +3897,41 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B247">
-        <v>276</v>
+        <v>695</v>
       </c>
       <c r="C247">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D247">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B248">
-        <v>760</v>
+        <v>695</v>
       </c>
       <c r="C248">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D248">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="B249">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D249">
         <v>2</v>
@@ -3943,13 +3939,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="B250">
-        <v>285</v>
+        <v>697</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D250">
         <v>2</v>
@@ -3960,80 +3956,80 @@
         <v>1019</v>
       </c>
       <c r="B251">
-        <v>282</v>
+        <v>697</v>
       </c>
       <c r="C251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="B252">
-        <v>725</v>
+        <v>697</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B253">
-        <v>732</v>
+        <v>698</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="B254">
-        <v>265</v>
+        <v>698</v>
       </c>
       <c r="C254">
         <v>3</v>
       </c>
       <c r="D254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="B255">
-        <v>745</v>
+        <v>698</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="B256">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D256">
         <v>2</v>
@@ -4041,55 +4037,55 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="B257">
-        <v>754</v>
+        <v>699</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D257">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="B258">
-        <v>283</v>
+        <v>699</v>
       </c>
       <c r="C258">
         <v>5</v>
       </c>
       <c r="D258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>1019</v>
+        <v>1029</v>
       </c>
       <c r="B259">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="B260">
-        <v>278</v>
+        <v>699</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -4100,55 +4096,55 @@
         <v>1019</v>
       </c>
       <c r="B261">
-        <v>288</v>
+        <v>700</v>
       </c>
       <c r="C261">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>1019</v>
+        <v>1004</v>
       </c>
       <c r="B262">
-        <v>757</v>
+        <v>701</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="B263">
-        <v>756</v>
+        <v>701</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="B264">
-        <v>293</v>
+        <v>701</v>
       </c>
       <c r="C264">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -4156,66 +4152,66 @@
         <v>1019</v>
       </c>
       <c r="B265">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B266">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>1019</v>
+        <v>1028</v>
       </c>
       <c r="B267">
-        <v>761</v>
+        <v>702</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>1019</v>
+        <v>1030</v>
       </c>
       <c r="B268">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C268">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>1019</v>
+        <v>1030</v>
       </c>
       <c r="B269">
-        <v>268</v>
+        <v>702</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -4226,52 +4222,52 @@
         <v>1019</v>
       </c>
       <c r="B270">
-        <v>737</v>
+        <v>703</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="B271">
-        <v>753</v>
+        <v>703</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="B272">
-        <v>296</v>
+        <v>704</v>
       </c>
       <c r="C272">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B273">
-        <v>678</v>
+        <v>704</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -4282,55 +4278,55 @@
         <v>1019</v>
       </c>
       <c r="B274">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="B275">
-        <v>729</v>
+        <v>704</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>1019</v>
+        <v>1035</v>
       </c>
       <c r="B276">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C276">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>1019</v>
+        <v>1035</v>
       </c>
       <c r="B277">
-        <v>739</v>
+        <v>704</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -4338,80 +4334,80 @@
         <v>1019</v>
       </c>
       <c r="B278">
-        <v>728</v>
+        <v>705</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B279">
-        <v>276</v>
+        <v>705</v>
       </c>
       <c r="C279">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>1019</v>
+        <v>1032</v>
       </c>
       <c r="B280">
-        <v>732</v>
+        <v>705</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>1019</v>
+        <v>1032</v>
       </c>
       <c r="B281">
-        <v>761</v>
+        <v>705</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="B282">
-        <v>736</v>
+        <v>706</v>
       </c>
       <c r="C282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="B283">
-        <v>745</v>
+        <v>706</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D283">
         <v>1</v>
@@ -4422,38 +4418,38 @@
         <v>1019</v>
       </c>
       <c r="B284">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="B285">
-        <v>750</v>
+        <v>707</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D285">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="B286">
-        <v>259</v>
+        <v>707</v>
       </c>
       <c r="C286">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -4464,52 +4460,52 @@
         <v>1019</v>
       </c>
       <c r="B287">
-        <v>741</v>
+        <v>707</v>
       </c>
       <c r="C287">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="B288">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="C288">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B289">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="B290">
-        <v>278</v>
+        <v>709</v>
       </c>
       <c r="C290">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -4517,52 +4513,52 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="B291">
-        <v>281</v>
+        <v>709</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B292">
-        <v>288</v>
+        <v>709</v>
       </c>
       <c r="C292">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D292">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>1019</v>
+        <v>1042</v>
       </c>
       <c r="B293">
-        <v>680</v>
+        <v>709</v>
       </c>
       <c r="C293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>1019</v>
+        <v>1042</v>
       </c>
       <c r="B294">
-        <v>758</v>
+        <v>709</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -4576,13 +4572,13 @@
         <v>1019</v>
       </c>
       <c r="B295">
-        <v>755</v>
+        <v>710</v>
       </c>
       <c r="C295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D295">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -4590,24 +4586,24 @@
         <v>1019</v>
       </c>
       <c r="B296">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="B297">
-        <v>761</v>
+        <v>710</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -4615,55 +4611,55 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>1019</v>
+        <v>1039</v>
       </c>
       <c r="B298">
-        <v>676</v>
+        <v>710</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>1019</v>
+        <v>1003</v>
       </c>
       <c r="B299">
-        <v>734</v>
+        <v>711</v>
       </c>
       <c r="C299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="B300">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="B301">
-        <v>697</v>
+        <v>711</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -4671,44 +4667,44 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="B302">
-        <v>684</v>
+        <v>711</v>
       </c>
       <c r="C302">
         <v>1</v>
       </c>
       <c r="D302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B303">
-        <v>744</v>
+        <v>711</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="B304">
-        <v>273</v>
+        <v>712</v>
       </c>
       <c r="C304">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D304">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -4716,24 +4712,24 @@
         <v>1019</v>
       </c>
       <c r="B305">
-        <v>276</v>
+        <v>712</v>
       </c>
       <c r="C305">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306">
-        <v>1019</v>
+        <v>1027</v>
       </c>
       <c r="B306">
-        <v>753</v>
+        <v>712</v>
       </c>
       <c r="C306">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -4741,10 +4737,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="B307">
-        <v>747</v>
+        <v>713</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -4755,13 +4751,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="B308">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="C308">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D308">
         <v>3</v>
@@ -4769,13 +4765,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B309">
-        <v>695</v>
+        <v>714</v>
       </c>
       <c r="C309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D309">
         <v>3</v>
@@ -4786,10 +4782,10 @@
         <v>1020</v>
       </c>
       <c r="B310">
-        <v>281</v>
+        <v>714</v>
       </c>
       <c r="C310">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D310">
         <v>2</v>
@@ -4797,83 +4793,83 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311">
-        <v>1020</v>
+        <v>1002</v>
       </c>
       <c r="B311">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C311">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D311">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B312">
-        <v>739</v>
+        <v>715</v>
       </c>
       <c r="C312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D312">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="B313">
-        <v>296</v>
+        <v>716</v>
       </c>
       <c r="C313">
         <v>1</v>
       </c>
       <c r="D313">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314">
-        <v>1020</v>
+        <v>1042</v>
       </c>
       <c r="B314">
-        <v>684</v>
+        <v>716</v>
       </c>
       <c r="C314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="B315">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C315">
         <v>1</v>
       </c>
       <c r="D315">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B316">
-        <v>695</v>
+        <v>717</v>
       </c>
       <c r="C316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D316">
         <v>1</v>
@@ -4881,66 +4877,66 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B317">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="C317">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="B318">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="C318">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D318">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319">
-        <v>1020</v>
+        <v>1033</v>
       </c>
       <c r="B319">
-        <v>739</v>
+        <v>717</v>
       </c>
       <c r="C319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D319">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320">
-        <v>1020</v>
+        <v>1039</v>
       </c>
       <c r="B320">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="C320">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="B321">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="C321">
         <v>1</v>
@@ -4951,38 +4947,38 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="B322">
-        <v>737</v>
+        <v>718</v>
       </c>
       <c r="C322">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323">
-        <v>1020</v>
+        <v>1033</v>
       </c>
       <c r="B323">
-        <v>751</v>
+        <v>718</v>
       </c>
       <c r="C323">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D323">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324">
-        <v>1021</v>
+        <v>1033</v>
       </c>
       <c r="B324">
-        <v>752</v>
+        <v>718</v>
       </c>
       <c r="C324">
         <v>2</v>
@@ -4993,181 +4989,181 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B325">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="C325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D325">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B326">
-        <v>683</v>
+        <v>719</v>
       </c>
       <c r="C326">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D326">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327">
-        <v>1022</v>
+        <v>1033</v>
       </c>
       <c r="B327">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="C327">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D327">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B328">
-        <v>281</v>
+        <v>720</v>
       </c>
       <c r="C328">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D328">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329">
-        <v>1022</v>
+        <v>1033</v>
       </c>
       <c r="B329">
-        <v>254</v>
+        <v>720</v>
       </c>
       <c r="C329">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D329">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330">
-        <v>1022</v>
+        <v>1005</v>
       </c>
       <c r="B330">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="C330">
         <v>3</v>
       </c>
       <c r="D330">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="B331">
-        <v>678</v>
+        <v>721</v>
       </c>
       <c r="C331">
         <v>1</v>
       </c>
       <c r="D331">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332">
-        <v>1023</v>
+        <v>1033</v>
       </c>
       <c r="B332">
-        <v>750</v>
+        <v>721</v>
       </c>
       <c r="C332">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D332">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333">
-        <v>1023</v>
+        <v>1039</v>
       </c>
       <c r="B333">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C333">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D333">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B334">
-        <v>680</v>
+        <v>722</v>
       </c>
       <c r="C334">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D334">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B335">
-        <v>684</v>
+        <v>722</v>
       </c>
       <c r="C335">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D335">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336">
-        <v>1023</v>
+        <v>1033</v>
       </c>
       <c r="B336">
-        <v>252</v>
+        <v>722</v>
       </c>
       <c r="C336">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D336">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B337">
-        <v>278</v>
+        <v>723</v>
       </c>
       <c r="C337">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D337">
         <v>2</v>
@@ -5175,41 +5171,41 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338">
-        <v>1023</v>
+        <v>1006</v>
       </c>
       <c r="B338">
-        <v>253</v>
+        <v>724</v>
       </c>
       <c r="C338">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D338">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339">
-        <v>1023</v>
+        <v>1031</v>
       </c>
       <c r="B339">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C339">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D339">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340">
-        <v>1023</v>
+        <v>1032</v>
       </c>
       <c r="B340">
-        <v>251</v>
+        <v>724</v>
       </c>
       <c r="C340">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D340">
         <v>2</v>
@@ -5217,72 +5213,72 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
-        <v>1023</v>
+        <v>1006</v>
       </c>
       <c r="B341">
-        <v>761</v>
+        <v>725</v>
       </c>
       <c r="C341">
         <v>2</v>
       </c>
       <c r="D341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="B342">
-        <v>699</v>
+        <v>725</v>
       </c>
       <c r="C342">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="B343">
-        <v>282</v>
+        <v>725</v>
       </c>
       <c r="C343">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D343">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B344">
-        <v>280</v>
+        <v>725</v>
       </c>
       <c r="C344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D344">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B345">
-        <v>754</v>
+        <v>725</v>
       </c>
       <c r="C345">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D345">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -5290,94 +5286,94 @@
         <v>1023</v>
       </c>
       <c r="B346">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="C346">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D346">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="B347">
-        <v>692</v>
+        <v>725</v>
       </c>
       <c r="C347">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D347">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348">
-        <v>1023</v>
+        <v>1033</v>
       </c>
       <c r="B348">
-        <v>699</v>
+        <v>725</v>
       </c>
       <c r="C348">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349">
-        <v>1023</v>
+        <v>1002</v>
       </c>
       <c r="B349">
-        <v>682</v>
+        <v>726</v>
       </c>
       <c r="C349">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350">
-        <v>1024</v>
+        <v>1033</v>
       </c>
       <c r="B350">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="C350">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D350">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351">
-        <v>1024</v>
+        <v>1008</v>
       </c>
       <c r="B351">
-        <v>705</v>
+        <v>727</v>
       </c>
       <c r="C351">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D351">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B352">
-        <v>283</v>
+        <v>727</v>
       </c>
       <c r="C352">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D352">
         <v>2</v>
@@ -5385,69 +5381,69 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="B353">
-        <v>259</v>
+        <v>727</v>
       </c>
       <c r="C353">
         <v>4</v>
       </c>
       <c r="D353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="B354">
-        <v>251</v>
+        <v>727</v>
       </c>
       <c r="C354">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355">
-        <v>1025</v>
+        <v>1009</v>
       </c>
       <c r="B355">
-        <v>291</v>
+        <v>728</v>
       </c>
       <c r="C355">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="B356">
-        <v>290</v>
+        <v>728</v>
       </c>
       <c r="C356">
         <v>1</v>
       </c>
       <c r="D356">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="B357">
-        <v>266</v>
+        <v>728</v>
       </c>
       <c r="C357">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D357">
         <v>3</v>
@@ -5455,38 +5451,38 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="B358">
-        <v>686</v>
+        <v>728</v>
       </c>
       <c r="C358">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D358">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B359">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="C359">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D359">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360">
-        <v>1026</v>
+        <v>1006</v>
       </c>
       <c r="B360">
-        <v>276</v>
+        <v>729</v>
       </c>
       <c r="C360">
         <v>1</v>
@@ -5497,13 +5493,13 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="B361">
-        <v>266</v>
+        <v>729</v>
       </c>
       <c r="C361">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D361">
         <v>1</v>
@@ -5511,24 +5507,24 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="B362">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C362">
         <v>1</v>
       </c>
       <c r="D362">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="B363">
-        <v>275</v>
+        <v>729</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -5539,69 +5535,69 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B364">
-        <v>762</v>
+        <v>730</v>
       </c>
       <c r="C364">
         <v>5</v>
       </c>
       <c r="D364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
-        <v>1026</v>
+        <v>1035</v>
       </c>
       <c r="B365">
-        <v>698</v>
+        <v>730</v>
       </c>
       <c r="C365">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D365">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="B366">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C366">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D366">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367">
-        <v>1027</v>
+        <v>1009</v>
       </c>
       <c r="B367">
-        <v>681</v>
+        <v>731</v>
       </c>
       <c r="C367">
         <v>1</v>
       </c>
       <c r="D367">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="B368">
-        <v>681</v>
+        <v>731</v>
       </c>
       <c r="C368">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D368">
         <v>0</v>
@@ -5609,52 +5605,52 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369">
-        <v>1027</v>
+        <v>1012</v>
       </c>
       <c r="B369">
-        <v>712</v>
+        <v>731</v>
       </c>
       <c r="C369">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B370">
-        <v>702</v>
+        <v>731</v>
       </c>
       <c r="C370">
         <v>1</v>
       </c>
       <c r="D370">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="B371">
-        <v>252</v>
+        <v>731</v>
       </c>
       <c r="C371">
         <v>1</v>
       </c>
       <c r="D371">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372">
-        <v>1028</v>
+        <v>1002</v>
       </c>
       <c r="B372">
-        <v>252</v>
+        <v>732</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -5665,10 +5661,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373">
-        <v>1029</v>
+        <v>1006</v>
       </c>
       <c r="B373">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C373">
         <v>3</v>
@@ -5679,10 +5675,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="B374">
-        <v>283</v>
+        <v>732</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -5693,30 +5689,30 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="B375">
-        <v>699</v>
+        <v>732</v>
       </c>
       <c r="C375">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D375">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="B376">
-        <v>690</v>
+        <v>732</v>
       </c>
       <c r="C376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -5724,10 +5720,10 @@
         <v>1030</v>
       </c>
       <c r="B377">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="C377">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D377">
         <v>3</v>
@@ -5738,24 +5734,24 @@
         <v>1030</v>
       </c>
       <c r="B378">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="C378">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D378">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379">
-        <v>1030</v>
+        <v>1009</v>
       </c>
       <c r="B379">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C379">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D379">
         <v>3</v>
@@ -5763,83 +5759,83 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380">
-        <v>1030</v>
+        <v>1009</v>
       </c>
       <c r="B380">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="C380">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381">
-        <v>1030</v>
+        <v>1012</v>
       </c>
       <c r="B381">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C381">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="B382">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="C382">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D382">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383">
-        <v>1030</v>
+        <v>1018</v>
       </c>
       <c r="B383">
-        <v>687</v>
+        <v>733</v>
       </c>
       <c r="C383">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="B384">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C384">
         <v>2</v>
       </c>
       <c r="D384">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385">
-        <v>1031</v>
+        <v>1042</v>
       </c>
       <c r="B385">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="C385">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D385">
         <v>3</v>
@@ -5847,27 +5843,27 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386">
-        <v>1031</v>
+        <v>1006</v>
       </c>
       <c r="B386">
-        <v>254</v>
+        <v>734</v>
       </c>
       <c r="C386">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D386">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="B387">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C387">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D387">
         <v>0</v>
@@ -5875,27 +5871,27 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="B388">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="C388">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D388">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B389">
-        <v>250</v>
+        <v>735</v>
       </c>
       <c r="C389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D389">
         <v>3</v>
@@ -5903,13 +5899,13 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390">
-        <v>1032</v>
+        <v>1006</v>
       </c>
       <c r="B390">
-        <v>252</v>
+        <v>736</v>
       </c>
       <c r="C390">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D390">
         <v>3</v>
@@ -5917,13 +5913,13 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391">
-        <v>1032</v>
+        <v>1012</v>
       </c>
       <c r="B391">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="C391">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D391">
         <v>2</v>
@@ -5931,83 +5927,83 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="B392">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="C392">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D392">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="B393">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="C393">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D393">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B394">
-        <v>705</v>
+        <v>736</v>
       </c>
       <c r="C394">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D394">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395">
-        <v>1032</v>
+        <v>1002</v>
       </c>
       <c r="B395">
-        <v>262</v>
+        <v>737</v>
       </c>
       <c r="C395">
         <v>1</v>
       </c>
       <c r="D395">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396">
-        <v>1032</v>
+        <v>1005</v>
       </c>
       <c r="B396">
-        <v>682</v>
+        <v>737</v>
       </c>
       <c r="C396">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="B397">
-        <v>675</v>
+        <v>737</v>
       </c>
       <c r="C397">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D397">
         <v>1</v>
@@ -6015,10 +6011,10 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="B398">
-        <v>755</v>
+        <v>737</v>
       </c>
       <c r="C398">
         <v>2</v>
@@ -6029,13 +6025,13 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="B399">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="C399">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D399">
         <v>0</v>
@@ -6043,44 +6039,44 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="B400">
-        <v>705</v>
+        <v>737</v>
       </c>
       <c r="C400">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="B401">
-        <v>252</v>
+        <v>738</v>
       </c>
       <c r="C401">
         <v>3</v>
       </c>
       <c r="D401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B402">
-        <v>684</v>
+        <v>738</v>
       </c>
       <c r="C402">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -6088,164 +6084,164 @@
         <v>1033</v>
       </c>
       <c r="B403">
-        <v>704</v>
+        <v>738</v>
       </c>
       <c r="C403">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D403">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404">
-        <v>1033</v>
+        <v>1003</v>
       </c>
       <c r="B404">
-        <v>762</v>
+        <v>739</v>
       </c>
       <c r="C404">
         <v>1</v>
       </c>
       <c r="D404">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405">
-        <v>1033</v>
+        <v>1007</v>
       </c>
       <c r="B405">
-        <v>694</v>
+        <v>739</v>
       </c>
       <c r="C405">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D405">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406">
-        <v>1033</v>
+        <v>1007</v>
       </c>
       <c r="B406">
-        <v>688</v>
+        <v>739</v>
       </c>
       <c r="C406">
         <v>3</v>
       </c>
       <c r="D406">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="B407">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="C407">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D407">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="B408">
-        <v>676</v>
+        <v>739</v>
       </c>
       <c r="C408">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D408">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="B409">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="C409">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D409">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B410">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C410">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D410">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411">
-        <v>1033</v>
+        <v>1009</v>
       </c>
       <c r="B411">
-        <v>282</v>
+        <v>741</v>
       </c>
       <c r="C411">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D411">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412">
-        <v>1033</v>
+        <v>1012</v>
       </c>
       <c r="B412">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="C412">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D412">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413">
-        <v>1033</v>
+        <v>1012</v>
       </c>
       <c r="B413">
-        <v>720</v>
+        <v>741</v>
       </c>
       <c r="C413">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D413">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="B414">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="C414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D414">
         <v>3</v>
@@ -6253,69 +6249,69 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="B415">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="C415">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D415">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416">
-        <v>1033</v>
+        <v>1014</v>
       </c>
       <c r="B416">
-        <v>275</v>
+        <v>742</v>
       </c>
       <c r="C416">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D416">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417">
-        <v>1033</v>
+        <v>1002</v>
       </c>
       <c r="B417">
-        <v>682</v>
+        <v>743</v>
       </c>
       <c r="C417">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D417">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418">
-        <v>1033</v>
+        <v>1002</v>
       </c>
       <c r="B418">
-        <v>261</v>
+        <v>743</v>
       </c>
       <c r="C418">
         <v>1</v>
       </c>
       <c r="D418">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419">
-        <v>1033</v>
+        <v>1009</v>
       </c>
       <c r="B419">
-        <v>684</v>
+        <v>743</v>
       </c>
       <c r="C419">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D419">
         <v>3</v>
@@ -6323,16 +6319,16 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420">
-        <v>1033</v>
+        <v>1012</v>
       </c>
       <c r="B420">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="C420">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D420">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
@@ -6340,24 +6336,24 @@
         <v>1033</v>
       </c>
       <c r="B421">
-        <v>675</v>
+        <v>743</v>
       </c>
       <c r="C421">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D421">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422">
-        <v>1033</v>
+        <v>1042</v>
       </c>
       <c r="B422">
-        <v>251</v>
+        <v>743</v>
       </c>
       <c r="C422">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D422">
         <v>2</v>
@@ -6365,80 +6361,80 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423">
-        <v>1033</v>
+        <v>1002</v>
       </c>
       <c r="B423">
-        <v>725</v>
+        <v>744</v>
       </c>
       <c r="C423">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D423">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424">
-        <v>1033</v>
+        <v>1012</v>
       </c>
       <c r="B424">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="C424">
         <v>1</v>
       </c>
       <c r="D424">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425">
-        <v>1033</v>
+        <v>1016</v>
       </c>
       <c r="B425">
-        <v>265</v>
+        <v>744</v>
       </c>
       <c r="C425">
         <v>3</v>
       </c>
       <c r="D425">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="B426">
-        <v>292</v>
+        <v>744</v>
       </c>
       <c r="C426">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B427">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="C427">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D427">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B428">
-        <v>718</v>
+        <v>744</v>
       </c>
       <c r="C428">
         <v>2</v>
@@ -6449,13 +6445,13 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429">
-        <v>1033</v>
+        <v>1006</v>
       </c>
       <c r="B429">
-        <v>286</v>
+        <v>745</v>
       </c>
       <c r="C429">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D429">
         <v>2</v>
@@ -6463,27 +6459,27 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430">
-        <v>1033</v>
+        <v>1006</v>
       </c>
       <c r="B430">
-        <v>278</v>
+        <v>745</v>
       </c>
       <c r="C430">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="B431">
-        <v>287</v>
+        <v>745</v>
       </c>
       <c r="C431">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D431">
         <v>2</v>
@@ -6491,41 +6487,41 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="B432">
-        <v>707</v>
+        <v>745</v>
       </c>
       <c r="C432">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D432">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="B433">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C433">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D433">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B434">
-        <v>695</v>
+        <v>745</v>
       </c>
       <c r="C434">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D434">
         <v>2</v>
@@ -6533,13 +6529,13 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435">
-        <v>1033</v>
+        <v>1008</v>
       </c>
       <c r="B435">
-        <v>692</v>
+        <v>746</v>
       </c>
       <c r="C435">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D435">
         <v>1</v>
@@ -6547,83 +6543,83 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436">
-        <v>1033</v>
+        <v>1008</v>
       </c>
       <c r="B436">
-        <v>719</v>
+        <v>746</v>
       </c>
       <c r="C436">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437">
-        <v>1033</v>
+        <v>1005</v>
       </c>
       <c r="B437">
-        <v>686</v>
+        <v>747</v>
       </c>
       <c r="C437">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D437">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="B438">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C438">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D438">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="B439">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="C439">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D439">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="B440">
-        <v>689</v>
+        <v>747</v>
       </c>
       <c r="C440">
         <v>5</v>
       </c>
       <c r="D440">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441">
-        <v>1033</v>
+        <v>1002</v>
       </c>
       <c r="B441">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="C441">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D441">
         <v>1</v>
@@ -6631,16 +6627,16 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="B442">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="C442">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D442">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -6648,66 +6644,66 @@
         <v>1033</v>
       </c>
       <c r="B443">
-        <v>699</v>
+        <v>748</v>
       </c>
       <c r="C443">
         <v>3</v>
       </c>
       <c r="D443">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444">
-        <v>1033</v>
+        <v>1009</v>
       </c>
       <c r="B444">
-        <v>726</v>
+        <v>749</v>
       </c>
       <c r="C444">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D444">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B445">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="C445">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446">
-        <v>1033</v>
+        <v>1012</v>
       </c>
       <c r="B446">
-        <v>681</v>
+        <v>750</v>
       </c>
       <c r="C446">
         <v>5</v>
       </c>
       <c r="D446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="B447">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C447">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D447">
         <v>0</v>
@@ -6715,41 +6711,41 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="B448">
-        <v>689</v>
+        <v>750</v>
       </c>
       <c r="C448">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D448">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449">
-        <v>1033</v>
+        <v>1002</v>
       </c>
       <c r="B449">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C449">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D449">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="B450">
-        <v>698</v>
+        <v>751</v>
       </c>
       <c r="C450">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D450">
         <v>0</v>
@@ -6763,10 +6759,10 @@
         <v>751</v>
       </c>
       <c r="C451">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D451">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -6774,10 +6770,10 @@
         <v>1033</v>
       </c>
       <c r="B452">
-        <v>284</v>
+        <v>751</v>
       </c>
       <c r="C452">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D452">
         <v>0</v>
@@ -6785,30 +6781,30 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453">
-        <v>1033</v>
+        <v>1014</v>
       </c>
       <c r="B453">
-        <v>697</v>
+        <v>752</v>
       </c>
       <c r="C453">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D453">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="B454">
-        <v>291</v>
+        <v>752</v>
       </c>
       <c r="C454">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -6816,10 +6812,10 @@
         <v>1033</v>
       </c>
       <c r="B455">
-        <v>283</v>
+        <v>752</v>
       </c>
       <c r="C455">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D455">
         <v>0</v>
@@ -6827,55 +6823,55 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456">
-        <v>1033</v>
+        <v>1006</v>
       </c>
       <c r="B456">
-        <v>276</v>
+        <v>753</v>
       </c>
       <c r="C456">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="B457">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="C457">
         <v>1</v>
       </c>
       <c r="D457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="B458">
-        <v>721</v>
+        <v>753</v>
       </c>
       <c r="C458">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="B459">
-        <v>703</v>
+        <v>753</v>
       </c>
       <c r="C459">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D459">
         <v>0</v>
@@ -6883,122 +6879,122 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B460">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C460">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D460">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="B461">
-        <v>290</v>
+        <v>753</v>
       </c>
       <c r="C461">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462">
-        <v>1035</v>
+        <v>1042</v>
       </c>
       <c r="B462">
-        <v>254</v>
+        <v>753</v>
       </c>
       <c r="C462">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D462">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463">
-        <v>1035</v>
+        <v>1012</v>
       </c>
       <c r="B463">
-        <v>284</v>
+        <v>754</v>
       </c>
       <c r="C463">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D463">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="B464">
-        <v>730</v>
+        <v>754</v>
       </c>
       <c r="C464">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D464">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465">
-        <v>1035</v>
+        <v>1010</v>
       </c>
       <c r="B465">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C465">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466">
-        <v>1035</v>
+        <v>1010</v>
       </c>
       <c r="B466">
-        <v>674</v>
+        <v>755</v>
       </c>
       <c r="C466">
         <v>1</v>
       </c>
       <c r="D466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="B467">
-        <v>704</v>
+        <v>755</v>
       </c>
       <c r="C467">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B468">
-        <v>683</v>
+        <v>755</v>
       </c>
       <c r="C468">
         <v>2</v>
@@ -7009,27 +7005,27 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B469">
-        <v>730</v>
+        <v>755</v>
       </c>
       <c r="C469">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B470">
-        <v>704</v>
+        <v>755</v>
       </c>
       <c r="C470">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D470">
         <v>0</v>
@@ -7037,97 +7033,97 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471">
-        <v>1035</v>
+        <v>1012</v>
       </c>
       <c r="B471">
-        <v>291</v>
+        <v>756</v>
       </c>
       <c r="C471">
         <v>2</v>
       </c>
       <c r="D471">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="B472">
-        <v>288</v>
+        <v>756</v>
       </c>
       <c r="C472">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D472">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473">
-        <v>1036</v>
+        <v>1006</v>
       </c>
       <c r="B473">
-        <v>680</v>
+        <v>757</v>
       </c>
       <c r="C473">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D473">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474">
-        <v>1036</v>
+        <v>1012</v>
       </c>
       <c r="B474">
-        <v>678</v>
+        <v>757</v>
       </c>
       <c r="C474">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D474">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="B475">
-        <v>261</v>
+        <v>757</v>
       </c>
       <c r="C475">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D475">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B476">
-        <v>685</v>
+        <v>757</v>
       </c>
       <c r="C476">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D476">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477">
-        <v>1036</v>
+        <v>1005</v>
       </c>
       <c r="B477">
-        <v>297</v>
+        <v>758</v>
       </c>
       <c r="C477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D477">
         <v>2</v>
@@ -7135,41 +7131,41 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="B478">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="C478">
         <v>1</v>
       </c>
       <c r="D478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="B479">
-        <v>271</v>
+        <v>758</v>
       </c>
       <c r="C479">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D479">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B480">
-        <v>251</v>
+        <v>758</v>
       </c>
       <c r="C480">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D480">
         <v>1</v>
@@ -7177,83 +7173,83 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B481">
-        <v>680</v>
+        <v>758</v>
       </c>
       <c r="C481">
         <v>2</v>
       </c>
       <c r="D481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B482">
-        <v>688</v>
+        <v>758</v>
       </c>
       <c r="C482">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483">
-        <v>1036</v>
+        <v>1006</v>
       </c>
       <c r="B483">
-        <v>691</v>
+        <v>759</v>
       </c>
       <c r="C483">
         <v>2</v>
       </c>
       <c r="D483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484">
-        <v>1036</v>
+        <v>1009</v>
       </c>
       <c r="B484">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="C484">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485">
-        <v>1037</v>
+        <v>1019</v>
       </c>
       <c r="B485">
-        <v>295</v>
+        <v>759</v>
       </c>
       <c r="C485">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D485">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="B486">
-        <v>270</v>
+        <v>759</v>
       </c>
       <c r="C486">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D486">
         <v>1</v>
@@ -7261,27 +7257,27 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487">
-        <v>1037</v>
+        <v>1019</v>
       </c>
       <c r="B487">
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="C487">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D487">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488">
-        <v>1038</v>
+        <v>1019</v>
       </c>
       <c r="B488">
-        <v>684</v>
+        <v>760</v>
       </c>
       <c r="C488">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D488">
         <v>2</v>
@@ -7289,52 +7285,52 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489">
-        <v>1038</v>
+        <v>1006</v>
       </c>
       <c r="B489">
-        <v>692</v>
+        <v>761</v>
       </c>
       <c r="C489">
         <v>1</v>
       </c>
       <c r="D489">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490">
-        <v>1039</v>
+        <v>1019</v>
       </c>
       <c r="B490">
-        <v>721</v>
+        <v>761</v>
       </c>
       <c r="C490">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D490">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491">
-        <v>1039</v>
+        <v>1019</v>
       </c>
       <c r="B491">
-        <v>710</v>
+        <v>761</v>
       </c>
       <c r="C491">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492">
-        <v>1039</v>
+        <v>1023</v>
       </c>
       <c r="B492">
-        <v>284</v>
+        <v>761</v>
       </c>
       <c r="C492">
         <v>2</v>
@@ -7345,80 +7341,80 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493">
-        <v>1039</v>
+        <v>1003</v>
       </c>
       <c r="B493">
-        <v>717</v>
+        <v>762</v>
       </c>
       <c r="C493">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494">
-        <v>1040</v>
+        <v>1009</v>
       </c>
       <c r="B494">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="C494">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D494">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495">
-        <v>1040</v>
+        <v>1009</v>
       </c>
       <c r="B495">
-        <v>258</v>
+        <v>762</v>
       </c>
       <c r="C495">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D495">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496">
-        <v>1040</v>
+        <v>1019</v>
       </c>
       <c r="B496">
-        <v>258</v>
+        <v>762</v>
       </c>
       <c r="C496">
         <v>1</v>
       </c>
       <c r="D496">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497">
-        <v>1041</v>
+        <v>1026</v>
       </c>
       <c r="B497">
-        <v>285</v>
+        <v>762</v>
       </c>
       <c r="C497">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="B498">
-        <v>733</v>
+        <v>762</v>
       </c>
       <c r="C498">
         <v>1</v>
@@ -7427,105 +7423,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A499">
-        <v>1042</v>
-      </c>
-      <c r="B499">
-        <v>743</v>
-      </c>
-      <c r="C499">
-        <v>1</v>
-      </c>
-      <c r="D499">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A500">
-        <v>1042</v>
-      </c>
-      <c r="B500">
-        <v>682</v>
-      </c>
-      <c r="C500">
-        <v>1</v>
-      </c>
-      <c r="D500">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A501">
-        <v>1042</v>
-      </c>
-      <c r="B501">
-        <v>709</v>
-      </c>
-      <c r="C501">
-        <v>1</v>
-      </c>
-      <c r="D501">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A502">
-        <v>1042</v>
-      </c>
-      <c r="B502">
-        <v>682</v>
-      </c>
-      <c r="C502">
-        <v>1</v>
-      </c>
-      <c r="D502">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A503">
-        <v>1042</v>
-      </c>
-      <c r="B503">
-        <v>716</v>
-      </c>
-      <c r="C503">
-        <v>1</v>
-      </c>
-      <c r="D503">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A504">
-        <v>1042</v>
-      </c>
-      <c r="B504">
-        <v>753</v>
-      </c>
-      <c r="C504">
-        <v>1</v>
-      </c>
-      <c r="D504">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A505">
-        <v>1042</v>
-      </c>
-      <c r="B505">
-        <v>709</v>
-      </c>
-      <c r="C505">
-        <v>1</v>
-      </c>
-      <c r="D505">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D498">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Pre-Filtered/ratings_data.xlsx
+++ b/data/Pre-Filtered/ratings_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/coursework/Recommender/data/Pre-Filtered/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AC222F-C3D7-DB48-945C-B65F8E78DCAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE47F129-D80D-7A4C-8BED-8F05BF57473F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="27320" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ContextualRating" sheetId="10" r:id="rId1"/>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="A464" sqref="A464:XFD464"/>
+    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="A491" sqref="A491:A498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -453,24 +453,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1011</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1006</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -481,195 +481,195 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1012</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1009</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>250</v>
+        <v>674</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1009</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>250</v>
+        <v>694</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1016</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1032</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1001</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1002</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1005</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>251</v>
+        <v>690</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1005</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>251</v>
+        <v>715</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1009</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>251</v>
+        <v>719</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1012</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>251</v>
+        <v>726</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1023</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>251</v>
+        <v>732</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1025</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>251</v>
+        <v>737</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1033</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>251</v>
+        <v>743</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -677,27 +677,27 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1036</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>251</v>
+        <v>743</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1011</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>252</v>
+        <v>744</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -705,125 +705,125 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1019</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>252</v>
+        <v>748</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1023</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>252</v>
+        <v>751</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1028</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1028</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>252</v>
+        <v>711</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1032</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>252</v>
+        <v>739</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1032</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>252</v>
+        <v>762</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1023</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>253</v>
+        <v>701</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1006</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1022</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -831,24 +831,24 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1031</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1035</v>
+        <v>5</v>
       </c>
       <c r="B29">
-        <v>254</v>
+        <v>677</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -859,83 +859,83 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1002</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <v>256</v>
+        <v>707</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1012</v>
+        <v>5</v>
       </c>
       <c r="B31">
-        <v>256</v>
+        <v>721</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1012</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>256</v>
+        <v>737</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1040</v>
+        <v>5</v>
       </c>
       <c r="B33">
-        <v>258</v>
+        <v>747</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1040</v>
+        <v>5</v>
       </c>
       <c r="B34">
-        <v>258</v>
+        <v>758</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1006</v>
+        <v>6</v>
       </c>
       <c r="B35">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -943,10 +943,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1009</v>
+        <v>6</v>
       </c>
       <c r="B36">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -957,38 +957,38 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1009</v>
+        <v>6</v>
       </c>
       <c r="B37">
         <v>259</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1019</v>
+        <v>6</v>
       </c>
       <c r="B38">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1024</v>
+        <v>6</v>
       </c>
       <c r="B39">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -999,41 +999,41 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1006</v>
+        <v>6</v>
       </c>
       <c r="B40">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1007</v>
+        <v>6</v>
       </c>
       <c r="B41">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1019</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1041,13 +1041,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1006</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1055,38 +1055,38 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1033</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1036</v>
+        <v>6</v>
       </c>
       <c r="B45">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1006</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1097,55 +1097,55 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1006</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>1009</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1032</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>262</v>
+        <v>674</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1002</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>263</v>
+        <v>676</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1153,66 +1153,66 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1019</v>
+        <v>6</v>
       </c>
       <c r="B51">
-        <v>265</v>
+        <v>680</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1033</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>265</v>
+        <v>683</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>1006</v>
+        <v>6</v>
       </c>
       <c r="B53">
-        <v>266</v>
+        <v>686</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1009</v>
+        <v>6</v>
       </c>
       <c r="B54">
-        <v>266</v>
+        <v>686</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1009</v>
+        <v>6</v>
       </c>
       <c r="B55">
-        <v>266</v>
+        <v>687</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -1223,13 +1223,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1012</v>
+        <v>6</v>
       </c>
       <c r="B56">
-        <v>266</v>
+        <v>692</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1237,13 +1237,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1026</v>
+        <v>6</v>
       </c>
       <c r="B57">
-        <v>266</v>
+        <v>695</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -1251,97 +1251,97 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1026</v>
+        <v>6</v>
       </c>
       <c r="B58">
-        <v>266</v>
+        <v>697</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1001</v>
+        <v>6</v>
       </c>
       <c r="B59">
-        <v>267</v>
+        <v>699</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1006</v>
+        <v>6</v>
       </c>
       <c r="B60">
-        <v>267</v>
+        <v>704</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1009</v>
+        <v>6</v>
       </c>
       <c r="B61">
-        <v>267</v>
+        <v>709</v>
       </c>
       <c r="C61">
         <v>3</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1009</v>
+        <v>6</v>
       </c>
       <c r="B62">
-        <v>267</v>
+        <v>711</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1012</v>
+        <v>6</v>
       </c>
       <c r="B63">
-        <v>267</v>
+        <v>711</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>1019</v>
+        <v>6</v>
       </c>
       <c r="B64">
-        <v>268</v>
+        <v>712</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -1349,38 +1349,38 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1019</v>
+        <v>6</v>
       </c>
       <c r="B65">
-        <v>268</v>
+        <v>718</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>1005</v>
+        <v>6</v>
       </c>
       <c r="B66">
-        <v>269</v>
+        <v>724</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>1006</v>
+        <v>6</v>
       </c>
       <c r="B67">
-        <v>270</v>
+        <v>725</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -1391,55 +1391,55 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1037</v>
+        <v>6</v>
       </c>
       <c r="B68">
-        <v>270</v>
+        <v>729</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1003</v>
+        <v>6</v>
       </c>
       <c r="B69">
-        <v>271</v>
+        <v>732</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1036</v>
+        <v>6</v>
       </c>
       <c r="B70">
-        <v>271</v>
+        <v>734</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1009</v>
+        <v>6</v>
       </c>
       <c r="B71">
-        <v>272</v>
+        <v>736</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -1447,139 +1447,139 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1012</v>
+        <v>6</v>
       </c>
       <c r="B72">
-        <v>272</v>
+        <v>745</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1002</v>
+        <v>6</v>
       </c>
       <c r="B73">
-        <v>273</v>
+        <v>745</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>1012</v>
+        <v>6</v>
       </c>
       <c r="B74">
-        <v>273</v>
+        <v>753</v>
       </c>
       <c r="C74">
         <v>4</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1019</v>
+        <v>6</v>
       </c>
       <c r="B75">
-        <v>273</v>
+        <v>757</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>1019</v>
+        <v>6</v>
       </c>
       <c r="B76">
-        <v>273</v>
+        <v>759</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>1019</v>
+        <v>6</v>
       </c>
       <c r="B77">
-        <v>273</v>
+        <v>761</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>1008</v>
+        <v>7</v>
       </c>
       <c r="B78">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>1009</v>
+        <v>7</v>
       </c>
       <c r="B79">
-        <v>274</v>
+        <v>686</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>1014</v>
+        <v>7</v>
       </c>
       <c r="B80">
-        <v>275</v>
+        <v>739</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>1026</v>
+        <v>7</v>
       </c>
       <c r="B81">
-        <v>275</v>
+        <v>739</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -1587,27 +1587,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>1033</v>
+        <v>8</v>
       </c>
       <c r="B82">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>1006</v>
+        <v>8</v>
       </c>
       <c r="B83">
-        <v>276</v>
+        <v>689</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -1615,69 +1615,69 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>1009</v>
+        <v>8</v>
       </c>
       <c r="B84">
-        <v>276</v>
+        <v>691</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>1019</v>
+        <v>8</v>
       </c>
       <c r="B85">
-        <v>276</v>
+        <v>695</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>1019</v>
+        <v>8</v>
       </c>
       <c r="B86">
-        <v>276</v>
+        <v>695</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>1019</v>
+        <v>8</v>
       </c>
       <c r="B87">
-        <v>276</v>
+        <v>701</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>1019</v>
+        <v>8</v>
       </c>
       <c r="B88">
-        <v>276</v>
+        <v>711</v>
       </c>
       <c r="C88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -1685,83 +1685,83 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>1019</v>
+        <v>8</v>
       </c>
       <c r="B89">
-        <v>276</v>
+        <v>721</v>
       </c>
       <c r="C89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1026</v>
+        <v>8</v>
       </c>
       <c r="B90">
-        <v>276</v>
+        <v>727</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>1033</v>
+        <v>8</v>
       </c>
       <c r="B91">
-        <v>276</v>
+        <v>746</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1006</v>
+        <v>8</v>
       </c>
       <c r="B92">
-        <v>277</v>
+        <v>746</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>1009</v>
+        <v>9</v>
       </c>
       <c r="B93">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>1019</v>
+        <v>9</v>
       </c>
       <c r="B94">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -1769,111 +1769,111 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>1019</v>
+        <v>9</v>
       </c>
       <c r="B95">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1023</v>
+        <v>9</v>
       </c>
       <c r="B96">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>1033</v>
+        <v>9</v>
       </c>
       <c r="B97">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C97">
         <v>3</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>1006</v>
+        <v>9</v>
       </c>
       <c r="B98">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1012</v>
+        <v>9</v>
       </c>
       <c r="B99">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>1014</v>
+        <v>9</v>
       </c>
       <c r="B100">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>1023</v>
+        <v>9</v>
       </c>
       <c r="B101">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>1009</v>
+        <v>9</v>
       </c>
       <c r="B102">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -1881,77 +1881,77 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>1019</v>
+        <v>9</v>
       </c>
       <c r="B103">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>1020</v>
+        <v>9</v>
       </c>
       <c r="B104">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>1022</v>
+        <v>9</v>
       </c>
       <c r="B105">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C105">
         <v>4</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>1009</v>
+        <v>9</v>
       </c>
       <c r="B106">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>1012</v>
+        <v>9</v>
       </c>
       <c r="B107">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>1019</v>
+        <v>9</v>
       </c>
       <c r="B108">
         <v>282</v>
@@ -1960,18 +1960,18 @@
         <v>2</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>1023</v>
+        <v>9</v>
       </c>
       <c r="B109">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -1979,80 +1979,80 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>1033</v>
+        <v>9</v>
       </c>
       <c r="B110">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C110">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>1019</v>
+        <v>9</v>
       </c>
       <c r="B111">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>1019</v>
+        <v>9</v>
       </c>
       <c r="B112">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>1019</v>
+        <v>9</v>
       </c>
       <c r="B113">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>1024</v>
+        <v>9</v>
       </c>
       <c r="B114">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C114">
         <v>4</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>1029</v>
+        <v>9</v>
       </c>
       <c r="B115">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -2063,27 +2063,27 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>1033</v>
+        <v>9</v>
       </c>
       <c r="B116">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="C116">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>1009</v>
+        <v>9</v>
       </c>
       <c r="B117">
-        <v>284</v>
+        <v>678</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -2091,206 +2091,206 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>1012</v>
+        <v>9</v>
       </c>
       <c r="B118">
-        <v>284</v>
+        <v>686</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>1012</v>
+        <v>9</v>
       </c>
       <c r="B119">
-        <v>284</v>
+        <v>689</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>1019</v>
+        <v>9</v>
       </c>
       <c r="B120">
-        <v>284</v>
+        <v>692</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>1033</v>
+        <v>9</v>
       </c>
       <c r="B121">
-        <v>284</v>
+        <v>706</v>
       </c>
       <c r="C121">
         <v>3</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>1035</v>
+        <v>9</v>
       </c>
       <c r="B122">
-        <v>284</v>
+        <v>707</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>1039</v>
+        <v>9</v>
       </c>
       <c r="B123">
-        <v>284</v>
+        <v>714</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>1009</v>
+        <v>9</v>
       </c>
       <c r="B124">
-        <v>285</v>
+        <v>716</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>1009</v>
+        <v>9</v>
       </c>
       <c r="B125">
-        <v>285</v>
+        <v>717</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>1014</v>
+        <v>9</v>
       </c>
       <c r="B126">
-        <v>285</v>
+        <v>725</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>1019</v>
+        <v>9</v>
       </c>
       <c r="B127">
-        <v>285</v>
+        <v>728</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>1019</v>
+        <v>9</v>
       </c>
       <c r="B128">
-        <v>285</v>
+        <v>731</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>1041</v>
+        <v>9</v>
       </c>
       <c r="B129">
-        <v>285</v>
+        <v>733</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>1006</v>
+        <v>9</v>
       </c>
       <c r="B130">
-        <v>286</v>
+        <v>733</v>
       </c>
       <c r="C130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>1010</v>
+        <v>9</v>
       </c>
       <c r="B131">
-        <v>286</v>
+        <v>741</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>1019</v>
+        <v>9</v>
       </c>
       <c r="B132">
-        <v>286</v>
+        <v>743</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -2301,13 +2301,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>1033</v>
+        <v>9</v>
       </c>
       <c r="B133">
-        <v>286</v>
+        <v>749</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -2315,83 +2315,83 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>1019</v>
+        <v>9</v>
       </c>
       <c r="B134">
-        <v>287</v>
+        <v>759</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>1033</v>
+        <v>9</v>
       </c>
       <c r="B135">
-        <v>287</v>
+        <v>762</v>
       </c>
       <c r="C135">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>1009</v>
+        <v>9</v>
       </c>
       <c r="B136">
-        <v>288</v>
+        <v>762</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>1018</v>
+        <v>10</v>
       </c>
       <c r="B137">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C137">
         <v>3</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>1019</v>
+        <v>10</v>
       </c>
       <c r="B138">
-        <v>288</v>
+        <v>713</v>
       </c>
       <c r="C138">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>1019</v>
+        <v>10</v>
       </c>
       <c r="B139">
-        <v>288</v>
+        <v>731</v>
       </c>
       <c r="C139">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -2399,27 +2399,27 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>1036</v>
+        <v>10</v>
       </c>
       <c r="B140">
-        <v>288</v>
+        <v>755</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>1009</v>
+        <v>10</v>
       </c>
       <c r="B141">
-        <v>289</v>
+        <v>755</v>
       </c>
       <c r="C141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -2427,125 +2427,125 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>1026</v>
+        <v>11</v>
       </c>
       <c r="B142">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>1033</v>
+        <v>11</v>
       </c>
       <c r="B143">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="C143">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>1009</v>
+        <v>11</v>
       </c>
       <c r="B144">
-        <v>291</v>
+        <v>686</v>
       </c>
       <c r="C144">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>1025</v>
+        <v>12</v>
       </c>
       <c r="B145">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="C145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>1033</v>
+        <v>12</v>
       </c>
       <c r="B146">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="C146">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>1035</v>
+        <v>12</v>
       </c>
       <c r="B147">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="C147">
         <v>2</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>1012</v>
+        <v>12</v>
       </c>
       <c r="B148">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="C148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>1012</v>
+        <v>12</v>
       </c>
       <c r="B149">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>1019</v>
+        <v>12</v>
       </c>
       <c r="B150">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="C150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D150">
         <v>3</v>
@@ -2553,27 +2553,27 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>1033</v>
+        <v>12</v>
       </c>
       <c r="B151">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>1009</v>
+        <v>12</v>
       </c>
       <c r="B152">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D152">
         <v>2</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>1012</v>
+        <v>12</v>
       </c>
       <c r="B153">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -2595,13 +2595,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>1019</v>
+        <v>12</v>
       </c>
       <c r="B154">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C154">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -2609,97 +2609,97 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>1001</v>
+        <v>12</v>
       </c>
       <c r="B155">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C155">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>1009</v>
+        <v>12</v>
       </c>
       <c r="B156">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>1014</v>
+        <v>12</v>
       </c>
       <c r="B157">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C157">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>1037</v>
+        <v>12</v>
       </c>
       <c r="B158">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C158">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>1019</v>
+        <v>12</v>
       </c>
       <c r="B159">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C159">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>1020</v>
+        <v>12</v>
       </c>
       <c r="B160">
-        <v>296</v>
+        <v>676</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>1036</v>
+        <v>12</v>
       </c>
       <c r="B161">
-        <v>297</v>
+        <v>682</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161">
         <v>2</v>
@@ -2707,139 +2707,139 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>1001</v>
+        <v>12</v>
       </c>
       <c r="B162">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>1006</v>
+        <v>12</v>
       </c>
       <c r="B163">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>1035</v>
+        <v>12</v>
       </c>
       <c r="B164">
-        <v>674</v>
+        <v>691</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>1015</v>
+        <v>12</v>
       </c>
       <c r="B165">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="C165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>1032</v>
+        <v>12</v>
       </c>
       <c r="B166">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>1033</v>
+        <v>12</v>
       </c>
       <c r="B167">
-        <v>675</v>
+        <v>701</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>1006</v>
+        <v>12</v>
       </c>
       <c r="B168">
-        <v>676</v>
+        <v>706</v>
       </c>
       <c r="C168">
         <v>2</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>1012</v>
+        <v>12</v>
       </c>
       <c r="B169">
-        <v>676</v>
+        <v>709</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>1019</v>
+        <v>12</v>
       </c>
       <c r="B170">
-        <v>676</v>
+        <v>718</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>1033</v>
+        <v>12</v>
       </c>
       <c r="B171">
-        <v>676</v>
+        <v>725</v>
       </c>
       <c r="C171">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D171">
         <v>3</v>
@@ -2847,27 +2847,27 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>1005</v>
+        <v>12</v>
       </c>
       <c r="B172">
-        <v>677</v>
+        <v>728</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>1009</v>
+        <v>12</v>
       </c>
       <c r="B173">
-        <v>678</v>
+        <v>729</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>1019</v>
+        <v>12</v>
       </c>
       <c r="B174">
-        <v>678</v>
+        <v>731</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -2889,13 +2889,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>1022</v>
+        <v>12</v>
       </c>
       <c r="B175">
-        <v>678</v>
+        <v>733</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -2903,13 +2903,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>1036</v>
+        <v>12</v>
       </c>
       <c r="B176">
-        <v>678</v>
+        <v>736</v>
       </c>
       <c r="C176">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D176">
         <v>2</v>
@@ -2917,27 +2917,27 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>1006</v>
+        <v>12</v>
       </c>
       <c r="B177">
-        <v>680</v>
+        <v>741</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>1019</v>
+        <v>12</v>
       </c>
       <c r="B178">
-        <v>680</v>
+        <v>741</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -2945,27 +2945,27 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>1023</v>
+        <v>12</v>
       </c>
       <c r="B179">
-        <v>680</v>
+        <v>743</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>1036</v>
+        <v>12</v>
       </c>
       <c r="B180">
-        <v>680</v>
+        <v>744</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D180">
         <v>3</v>
@@ -2973,27 +2973,27 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>1036</v>
+        <v>12</v>
       </c>
       <c r="B181">
-        <v>680</v>
+        <v>750</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>1037</v>
+        <v>12</v>
       </c>
       <c r="B182">
-        <v>680</v>
+        <v>754</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -3001,38 +3001,38 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>1019</v>
+        <v>12</v>
       </c>
       <c r="B183">
-        <v>681</v>
+        <v>756</v>
       </c>
       <c r="C183">
         <v>2</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>1027</v>
+        <v>12</v>
       </c>
       <c r="B184">
-        <v>681</v>
+        <v>757</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>1027</v>
+        <v>13</v>
       </c>
       <c r="B185">
-        <v>681</v>
+        <v>275</v>
       </c>
       <c r="C185">
         <v>4</v>
@@ -3043,13 +3043,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>1033</v>
+        <v>13</v>
       </c>
       <c r="B186">
-        <v>681</v>
+        <v>279</v>
       </c>
       <c r="C186">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -3057,10 +3057,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>1012</v>
+        <v>13</v>
       </c>
       <c r="B187">
-        <v>682</v>
+        <v>285</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -3071,41 +3071,41 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>1023</v>
+        <v>13</v>
       </c>
       <c r="B188">
-        <v>682</v>
+        <v>294</v>
       </c>
       <c r="C188">
         <v>4</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>1032</v>
+        <v>13</v>
       </c>
       <c r="B189">
-        <v>682</v>
+        <v>742</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>1033</v>
+        <v>13</v>
       </c>
       <c r="B190">
-        <v>682</v>
+        <v>752</v>
       </c>
       <c r="C190">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D190">
         <v>3</v>
@@ -3113,69 +3113,69 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>1042</v>
+        <v>14</v>
       </c>
       <c r="B191">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>1042</v>
+        <v>14</v>
       </c>
       <c r="B192">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>1006</v>
+        <v>14</v>
       </c>
       <c r="B193">
-        <v>683</v>
+        <v>733</v>
       </c>
       <c r="C193">
         <v>3</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>1015</v>
+        <v>15</v>
       </c>
       <c r="B194">
-        <v>683</v>
+        <v>250</v>
       </c>
       <c r="C194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>1019</v>
+        <v>15</v>
       </c>
       <c r="B195">
-        <v>683</v>
+        <v>744</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -3183,139 +3183,139 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>1021</v>
+        <v>16</v>
       </c>
       <c r="B196">
-        <v>683</v>
+        <v>288</v>
       </c>
       <c r="C196">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>1035</v>
+        <v>16</v>
       </c>
       <c r="B197">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>1019</v>
+        <v>16</v>
       </c>
       <c r="B198">
-        <v>684</v>
+        <v>704</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>1020</v>
+        <v>16</v>
       </c>
       <c r="B199">
-        <v>684</v>
+        <v>709</v>
       </c>
       <c r="C199">
         <v>2</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>1023</v>
+        <v>16</v>
       </c>
       <c r="B200">
-        <v>684</v>
+        <v>711</v>
       </c>
       <c r="C200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>1032</v>
+        <v>16</v>
       </c>
       <c r="B201">
-        <v>684</v>
+        <v>733</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>1033</v>
+        <v>17</v>
       </c>
       <c r="B202">
-        <v>684</v>
+        <v>252</v>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D202">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>1038</v>
+        <v>17</v>
       </c>
       <c r="B203">
-        <v>684</v>
+        <v>259</v>
       </c>
       <c r="C203">
         <v>5</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>1019</v>
+        <v>17</v>
       </c>
       <c r="B204">
-        <v>685</v>
+        <v>260</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>1036</v>
+        <v>17</v>
       </c>
       <c r="B205">
-        <v>685</v>
+        <v>265</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D205">
         <v>2</v>
@@ -3323,13 +3323,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>1006</v>
+        <v>17</v>
       </c>
       <c r="B206">
-        <v>686</v>
+        <v>268</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D206">
         <v>3</v>
@@ -3337,13 +3337,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>1006</v>
+        <v>17</v>
       </c>
       <c r="B207">
-        <v>686</v>
+        <v>268</v>
       </c>
       <c r="C207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -3351,13 +3351,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>1007</v>
+        <v>17</v>
       </c>
       <c r="B208">
-        <v>686</v>
+        <v>273</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D208">
         <v>3</v>
@@ -3365,38 +3365,38 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>1009</v>
+        <v>17</v>
       </c>
       <c r="B209">
-        <v>686</v>
+        <v>273</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D209">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>1011</v>
+        <v>17</v>
       </c>
       <c r="B210">
-        <v>686</v>
+        <v>273</v>
       </c>
       <c r="C210">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>1026</v>
+        <v>17</v>
       </c>
       <c r="B211">
-        <v>686</v>
+        <v>276</v>
       </c>
       <c r="C211">
         <v>5</v>
@@ -3407,27 +3407,27 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>1033</v>
+        <v>17</v>
       </c>
       <c r="B212">
-        <v>686</v>
+        <v>276</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>1006</v>
+        <v>17</v>
       </c>
       <c r="B213">
-        <v>687</v>
+        <v>276</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D213">
         <v>2</v>
@@ -3435,27 +3435,27 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>1019</v>
+        <v>17</v>
       </c>
       <c r="B214">
-        <v>687</v>
+        <v>276</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>1030</v>
+        <v>17</v>
       </c>
       <c r="B215">
-        <v>687</v>
+        <v>276</v>
       </c>
       <c r="C215">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -3463,94 +3463,94 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>1019</v>
+        <v>17</v>
       </c>
       <c r="B216">
-        <v>688</v>
+        <v>278</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>1019</v>
+        <v>17</v>
       </c>
       <c r="B217">
-        <v>688</v>
+        <v>278</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>1033</v>
+        <v>17</v>
       </c>
       <c r="B218">
-        <v>688</v>
+        <v>281</v>
       </c>
       <c r="C218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>1036</v>
+        <v>17</v>
       </c>
       <c r="B219">
-        <v>688</v>
+        <v>282</v>
       </c>
       <c r="C219">
         <v>2</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>1008</v>
+        <v>17</v>
       </c>
       <c r="B220">
-        <v>689</v>
+        <v>283</v>
       </c>
       <c r="C220">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>1009</v>
+        <v>17</v>
       </c>
       <c r="B221">
-        <v>689</v>
+        <v>283</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>1019</v>
+        <v>17</v>
       </c>
       <c r="B222">
-        <v>689</v>
+        <v>283</v>
       </c>
       <c r="C222">
         <v>5</v>
@@ -3561,52 +3561,52 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>1033</v>
+        <v>17</v>
       </c>
       <c r="B223">
-        <v>689</v>
+        <v>284</v>
       </c>
       <c r="C223">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>1033</v>
+        <v>17</v>
       </c>
       <c r="B224">
-        <v>689</v>
+        <v>285</v>
       </c>
       <c r="C224">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>1002</v>
+        <v>17</v>
       </c>
       <c r="B225">
-        <v>690</v>
+        <v>285</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>1012</v>
+        <v>17</v>
       </c>
       <c r="B226">
-        <v>690</v>
+        <v>286</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -3617,55 +3617,55 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>1012</v>
+        <v>17</v>
       </c>
       <c r="B227">
-        <v>690</v>
+        <v>287</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>1029</v>
+        <v>17</v>
       </c>
       <c r="B228">
-        <v>690</v>
+        <v>288</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>1008</v>
+        <v>17</v>
       </c>
       <c r="B229">
-        <v>691</v>
+        <v>288</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D229">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>1012</v>
+        <v>17</v>
       </c>
       <c r="B230">
-        <v>691</v>
+        <v>292</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D230">
         <v>3</v>
@@ -3673,41 +3673,41 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>1012</v>
+        <v>17</v>
       </c>
       <c r="B231">
-        <v>691</v>
+        <v>293</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D231">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>1036</v>
+        <v>17</v>
       </c>
       <c r="B232">
-        <v>691</v>
+        <v>296</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>1006</v>
+        <v>17</v>
       </c>
       <c r="B233">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -3715,27 +3715,27 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>1009</v>
+        <v>17</v>
       </c>
       <c r="B234">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>1023</v>
+        <v>17</v>
       </c>
       <c r="B235">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C235">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -3743,24 +3743,24 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>1033</v>
+        <v>17</v>
       </c>
       <c r="B236">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="C236">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>1038</v>
+        <v>17</v>
       </c>
       <c r="B237">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -3771,94 +3771,94 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>1012</v>
+        <v>17</v>
       </c>
       <c r="B238">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>1019</v>
+        <v>17</v>
       </c>
       <c r="B239">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>1001</v>
+        <v>17</v>
       </c>
       <c r="B240">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="C240">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>1019</v>
+        <v>17</v>
       </c>
       <c r="B241">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>1033</v>
+        <v>17</v>
       </c>
       <c r="B242">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C242">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>1006</v>
+        <v>17</v>
       </c>
       <c r="B243">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C243">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D243">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>1008</v>
+        <v>17</v>
       </c>
       <c r="B244">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -3869,21 +3869,21 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>1008</v>
+        <v>17</v>
       </c>
       <c r="B245">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>1019</v>
+        <v>17</v>
       </c>
       <c r="B246">
         <v>695</v>
@@ -3897,41 +3897,41 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>1020</v>
+        <v>17</v>
       </c>
       <c r="B247">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D247">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>1020</v>
+        <v>17</v>
       </c>
       <c r="B248">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>1033</v>
+        <v>17</v>
       </c>
       <c r="B249">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="C249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D249">
         <v>2</v>
@@ -3939,13 +3939,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>1006</v>
+        <v>17</v>
       </c>
       <c r="B250">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C250">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D250">
         <v>2</v>
@@ -3953,10 +3953,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>1019</v>
+        <v>17</v>
       </c>
       <c r="B251">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -3967,24 +3967,24 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>1033</v>
+        <v>17</v>
       </c>
       <c r="B252">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="C252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>1018</v>
+        <v>17</v>
       </c>
       <c r="B253">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -3995,38 +3995,38 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>1026</v>
+        <v>17</v>
       </c>
       <c r="B254">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="C254">
         <v>3</v>
       </c>
       <c r="D254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>1033</v>
+        <v>17</v>
       </c>
       <c r="B255">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="C255">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>1006</v>
+        <v>17</v>
       </c>
       <c r="B256">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -4037,55 +4037,55 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>1023</v>
+        <v>17</v>
       </c>
       <c r="B257">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="C257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>1023</v>
+        <v>17</v>
       </c>
       <c r="B258">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="C258">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>1029</v>
+        <v>17</v>
       </c>
       <c r="B259">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="C259">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D259">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>1033</v>
+        <v>17</v>
       </c>
       <c r="B260">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="C260">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -4093,27 +4093,27 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>1019</v>
+        <v>17</v>
       </c>
       <c r="B261">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>1004</v>
+        <v>17</v>
       </c>
       <c r="B262">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="C262">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D262">
         <v>3</v>
@@ -4121,41 +4121,41 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>1008</v>
+        <v>17</v>
       </c>
       <c r="B263">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D263">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>1012</v>
+        <v>17</v>
       </c>
       <c r="B264">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>1019</v>
+        <v>17</v>
       </c>
       <c r="B265">
-        <v>702</v>
+        <v>723</v>
       </c>
       <c r="C265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D265">
         <v>2</v>
@@ -4163,55 +4163,55 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>1020</v>
+        <v>17</v>
       </c>
       <c r="B266">
-        <v>702</v>
+        <v>725</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>1028</v>
+        <v>17</v>
       </c>
       <c r="B267">
-        <v>702</v>
+        <v>727</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D267">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>1030</v>
+        <v>17</v>
       </c>
       <c r="B268">
-        <v>702</v>
+        <v>728</v>
       </c>
       <c r="C268">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D268">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>1030</v>
+        <v>17</v>
       </c>
       <c r="B269">
-        <v>702</v>
+        <v>728</v>
       </c>
       <c r="C269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -4219,55 +4219,55 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>1019</v>
+        <v>17</v>
       </c>
       <c r="B270">
-        <v>703</v>
+        <v>729</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>1033</v>
+        <v>17</v>
       </c>
       <c r="B271">
-        <v>703</v>
+        <v>729</v>
       </c>
       <c r="C271">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>1006</v>
+        <v>17</v>
       </c>
       <c r="B272">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>1018</v>
+        <v>17</v>
       </c>
       <c r="B273">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="C273">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -4275,13 +4275,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>1019</v>
+        <v>17</v>
       </c>
       <c r="B274">
-        <v>704</v>
+        <v>734</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -4289,13 +4289,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>1033</v>
+        <v>17</v>
       </c>
       <c r="B275">
-        <v>704</v>
+        <v>736</v>
       </c>
       <c r="C275">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D275">
         <v>3</v>
@@ -4303,83 +4303,83 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>1035</v>
+        <v>17</v>
       </c>
       <c r="B276">
-        <v>704</v>
+        <v>736</v>
       </c>
       <c r="C276">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D276">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>1035</v>
+        <v>17</v>
       </c>
       <c r="B277">
-        <v>704</v>
+        <v>737</v>
       </c>
       <c r="C277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>1019</v>
+        <v>17</v>
       </c>
       <c r="B278">
-        <v>705</v>
+        <v>739</v>
       </c>
       <c r="C278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D278">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>1024</v>
+        <v>17</v>
       </c>
       <c r="B279">
-        <v>705</v>
+        <v>741</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>1032</v>
+        <v>17</v>
       </c>
       <c r="B280">
-        <v>705</v>
+        <v>741</v>
       </c>
       <c r="C280">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>1032</v>
+        <v>17</v>
       </c>
       <c r="B281">
-        <v>705</v>
+        <v>744</v>
       </c>
       <c r="C281">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -4387,13 +4387,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>1009</v>
+        <v>17</v>
       </c>
       <c r="B282">
-        <v>706</v>
+        <v>745</v>
       </c>
       <c r="C282">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D282">
         <v>2</v>
@@ -4401,13 +4401,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>1012</v>
+        <v>17</v>
       </c>
       <c r="B283">
-        <v>706</v>
+        <v>745</v>
       </c>
       <c r="C283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D283">
         <v>1</v>
@@ -4415,24 +4415,24 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>1019</v>
+        <v>17</v>
       </c>
       <c r="B284">
-        <v>706</v>
+        <v>747</v>
       </c>
       <c r="C284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D284">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>1005</v>
+        <v>17</v>
       </c>
       <c r="B285">
-        <v>707</v>
+        <v>748</v>
       </c>
       <c r="C285">
         <v>2</v>
@@ -4443,10 +4443,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>1009</v>
+        <v>17</v>
       </c>
       <c r="B286">
-        <v>707</v>
+        <v>750</v>
       </c>
       <c r="C286">
         <v>1</v>
@@ -4457,55 +4457,55 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>1019</v>
+        <v>17</v>
       </c>
       <c r="B287">
-        <v>707</v>
+        <v>753</v>
       </c>
       <c r="C287">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>1033</v>
+        <v>17</v>
       </c>
       <c r="B288">
-        <v>707</v>
+        <v>753</v>
       </c>
       <c r="C288">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D288">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>1021</v>
+        <v>17</v>
       </c>
       <c r="B289">
-        <v>708</v>
+        <v>753</v>
       </c>
       <c r="C289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>1006</v>
+        <v>17</v>
       </c>
       <c r="B290">
-        <v>709</v>
+        <v>755</v>
       </c>
       <c r="C290">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -4513,69 +4513,69 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>1012</v>
+        <v>17</v>
       </c>
       <c r="B291">
-        <v>709</v>
+        <v>756</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>1018</v>
+        <v>17</v>
       </c>
       <c r="B292">
-        <v>709</v>
+        <v>757</v>
       </c>
       <c r="C292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D292">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>1042</v>
+        <v>17</v>
       </c>
       <c r="B293">
-        <v>709</v>
+        <v>758</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>1042</v>
+        <v>17</v>
       </c>
       <c r="B294">
-        <v>709</v>
+        <v>759</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
       <c r="D294">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>1019</v>
+        <v>17</v>
       </c>
       <c r="B295">
-        <v>710</v>
+        <v>760</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D295">
         <v>3</v>
@@ -4583,13 +4583,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
-        <v>1019</v>
+        <v>17</v>
       </c>
       <c r="B296">
-        <v>710</v>
+        <v>760</v>
       </c>
       <c r="C296">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D296">
         <v>2</v>
@@ -4597,55 +4597,55 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
-        <v>1022</v>
+        <v>17</v>
       </c>
       <c r="B297">
-        <v>710</v>
+        <v>761</v>
       </c>
       <c r="C297">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>1039</v>
+        <v>17</v>
       </c>
       <c r="B298">
-        <v>710</v>
+        <v>761</v>
       </c>
       <c r="C298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>1003</v>
+        <v>17</v>
       </c>
       <c r="B299">
-        <v>711</v>
+        <v>762</v>
       </c>
       <c r="C299">
         <v>1</v>
       </c>
       <c r="D299">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>1006</v>
+        <v>18</v>
       </c>
       <c r="B300">
-        <v>711</v>
+        <v>281</v>
       </c>
       <c r="C300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D300">
         <v>2</v>
@@ -4653,27 +4653,27 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>1006</v>
+        <v>18</v>
       </c>
       <c r="B301">
-        <v>711</v>
+        <v>296</v>
       </c>
       <c r="C301">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>1008</v>
+        <v>18</v>
       </c>
       <c r="B302">
-        <v>711</v>
+        <v>684</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -4681,83 +4681,83 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
-        <v>1018</v>
+        <v>18</v>
       </c>
       <c r="B303">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="C303">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D303">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
-        <v>1006</v>
+        <v>18</v>
       </c>
       <c r="B304">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="C304">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D304">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305">
-        <v>1019</v>
+        <v>18</v>
       </c>
       <c r="B305">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="C305">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306">
-        <v>1027</v>
+        <v>18</v>
       </c>
       <c r="B306">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C306">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307">
-        <v>1010</v>
+        <v>18</v>
       </c>
       <c r="B307">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
       <c r="D307">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308">
-        <v>1009</v>
+        <v>18</v>
       </c>
       <c r="B308">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="C308">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D308">
         <v>3</v>
@@ -4765,55 +4765,55 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309">
-        <v>1019</v>
+        <v>18</v>
       </c>
       <c r="B309">
-        <v>714</v>
+        <v>732</v>
       </c>
       <c r="C309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D309">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310">
-        <v>1020</v>
+        <v>18</v>
       </c>
       <c r="B310">
-        <v>714</v>
+        <v>737</v>
       </c>
       <c r="C310">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D310">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311">
-        <v>1002</v>
+        <v>18</v>
       </c>
       <c r="B311">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="C311">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D311">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312">
-        <v>1019</v>
+        <v>18</v>
       </c>
       <c r="B312">
-        <v>715</v>
+        <v>738</v>
       </c>
       <c r="C312">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -4821,13 +4821,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313">
-        <v>1009</v>
+        <v>18</v>
       </c>
       <c r="B313">
-        <v>716</v>
+        <v>739</v>
       </c>
       <c r="C313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D313">
         <v>2</v>
@@ -4835,24 +4835,24 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314">
-        <v>1042</v>
+        <v>18</v>
       </c>
       <c r="B314">
-        <v>716</v>
+        <v>739</v>
       </c>
       <c r="C314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315">
-        <v>1009</v>
+        <v>18</v>
       </c>
       <c r="B315">
-        <v>717</v>
+        <v>747</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -4863,69 +4863,69 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316">
-        <v>1019</v>
+        <v>18</v>
       </c>
       <c r="B316">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="C316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317">
-        <v>1019</v>
+        <v>19</v>
       </c>
       <c r="B317">
-        <v>717</v>
+        <v>683</v>
       </c>
       <c r="C317">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318">
-        <v>1024</v>
+        <v>19</v>
       </c>
       <c r="B318">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="C318">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D318">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319">
-        <v>1033</v>
+        <v>19</v>
       </c>
       <c r="B319">
-        <v>717</v>
+        <v>752</v>
       </c>
       <c r="C319">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D319">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320">
-        <v>1039</v>
+        <v>20</v>
       </c>
       <c r="B320">
-        <v>717</v>
+        <v>254</v>
       </c>
       <c r="C320">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -4933,55 +4933,55 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321">
-        <v>1006</v>
+        <v>20</v>
       </c>
       <c r="B321">
-        <v>718</v>
+        <v>281</v>
       </c>
       <c r="C321">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322">
-        <v>1012</v>
+        <v>20</v>
       </c>
       <c r="B322">
-        <v>718</v>
+        <v>678</v>
       </c>
       <c r="C322">
         <v>1</v>
       </c>
       <c r="D322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323">
-        <v>1033</v>
+        <v>20</v>
       </c>
       <c r="B323">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C323">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D323">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324">
-        <v>1033</v>
+        <v>20</v>
       </c>
       <c r="B324">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="C324">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D324">
         <v>2</v>
@@ -4989,97 +4989,97 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325">
-        <v>1002</v>
+        <v>21</v>
       </c>
       <c r="B325">
-        <v>719</v>
+        <v>251</v>
       </c>
       <c r="C325">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D325">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326">
-        <v>1019</v>
+        <v>21</v>
       </c>
       <c r="B326">
-        <v>719</v>
+        <v>252</v>
       </c>
       <c r="C326">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D326">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327">
-        <v>1033</v>
+        <v>21</v>
       </c>
       <c r="B327">
-        <v>719</v>
+        <v>253</v>
       </c>
       <c r="C327">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D327">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328">
-        <v>1019</v>
+        <v>21</v>
       </c>
       <c r="B328">
-        <v>720</v>
+        <v>278</v>
       </c>
       <c r="C328">
         <v>2</v>
       </c>
       <c r="D328">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329">
-        <v>1033</v>
+        <v>21</v>
       </c>
       <c r="B329">
-        <v>720</v>
+        <v>280</v>
       </c>
       <c r="C329">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D329">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330">
-        <v>1005</v>
+        <v>21</v>
       </c>
       <c r="B330">
-        <v>721</v>
+        <v>282</v>
       </c>
       <c r="C330">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D330">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331">
-        <v>1008</v>
+        <v>21</v>
       </c>
       <c r="B331">
-        <v>721</v>
+        <v>680</v>
       </c>
       <c r="C331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D331">
         <v>3</v>
@@ -5087,13 +5087,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332">
-        <v>1033</v>
+        <v>21</v>
       </c>
       <c r="B332">
-        <v>721</v>
+        <v>682</v>
       </c>
       <c r="C332">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D332">
         <v>0</v>
@@ -5101,10 +5101,10 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333">
-        <v>1039</v>
+        <v>21</v>
       </c>
       <c r="B333">
-        <v>721</v>
+        <v>684</v>
       </c>
       <c r="C333">
         <v>3</v>
@@ -5115,27 +5115,27 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334">
-        <v>1019</v>
+        <v>21</v>
       </c>
       <c r="B334">
-        <v>722</v>
+        <v>692</v>
       </c>
       <c r="C334">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335">
-        <v>1020</v>
+        <v>21</v>
       </c>
       <c r="B335">
-        <v>722</v>
+        <v>699</v>
       </c>
       <c r="C335">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D335">
         <v>1</v>
@@ -5143,125 +5143,125 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336">
-        <v>1033</v>
+        <v>21</v>
       </c>
       <c r="B336">
-        <v>722</v>
+        <v>699</v>
       </c>
       <c r="C336">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337">
-        <v>1019</v>
+        <v>21</v>
       </c>
       <c r="B337">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D337">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338">
-        <v>1006</v>
+        <v>21</v>
       </c>
       <c r="B338">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="C338">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D338">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339">
-        <v>1031</v>
+        <v>21</v>
       </c>
       <c r="B339">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="C339">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D339">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340">
-        <v>1032</v>
+        <v>21</v>
       </c>
       <c r="B340">
-        <v>724</v>
+        <v>750</v>
       </c>
       <c r="C340">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D340">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
-        <v>1006</v>
+        <v>21</v>
       </c>
       <c r="B341">
-        <v>725</v>
+        <v>754</v>
       </c>
       <c r="C341">
         <v>2</v>
       </c>
       <c r="D341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
-        <v>1009</v>
+        <v>21</v>
       </c>
       <c r="B342">
-        <v>725</v>
+        <v>761</v>
       </c>
       <c r="C342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343">
-        <v>1012</v>
+        <v>22</v>
       </c>
       <c r="B343">
-        <v>725</v>
+        <v>259</v>
       </c>
       <c r="C343">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D343">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344">
-        <v>1019</v>
+        <v>22</v>
       </c>
       <c r="B344">
-        <v>725</v>
+        <v>283</v>
       </c>
       <c r="C344">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D344">
         <v>2</v>
@@ -5269,27 +5269,27 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345">
-        <v>1020</v>
+        <v>22</v>
       </c>
       <c r="B345">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="C345">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D345">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346">
-        <v>1023</v>
+        <v>22</v>
       </c>
       <c r="B346">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="C346">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D346">
         <v>3</v>
@@ -5297,55 +5297,55 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347">
-        <v>1030</v>
+        <v>23</v>
       </c>
       <c r="B347">
-        <v>725</v>
+        <v>251</v>
       </c>
       <c r="C347">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D347">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348">
-        <v>1033</v>
+        <v>23</v>
       </c>
       <c r="B348">
-        <v>725</v>
+        <v>291</v>
       </c>
       <c r="C348">
         <v>4</v>
       </c>
       <c r="D348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349">
-        <v>1002</v>
+        <v>24</v>
       </c>
       <c r="B349">
-        <v>726</v>
+        <v>266</v>
       </c>
       <c r="C349">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D349">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350">
-        <v>1033</v>
+        <v>24</v>
       </c>
       <c r="B350">
-        <v>726</v>
+        <v>266</v>
       </c>
       <c r="C350">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D350">
         <v>1</v>
@@ -5353,13 +5353,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351">
-        <v>1008</v>
+        <v>24</v>
       </c>
       <c r="B351">
-        <v>727</v>
+        <v>275</v>
       </c>
       <c r="C351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D351">
         <v>1</v>
@@ -5367,13 +5367,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352">
-        <v>1019</v>
+        <v>24</v>
       </c>
       <c r="B352">
-        <v>727</v>
+        <v>276</v>
       </c>
       <c r="C352">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D352">
         <v>2</v>
@@ -5381,139 +5381,139 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353">
-        <v>1032</v>
+        <v>24</v>
       </c>
       <c r="B353">
-        <v>727</v>
+        <v>290</v>
       </c>
       <c r="C353">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D353">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354">
-        <v>1033</v>
+        <v>24</v>
       </c>
       <c r="B354">
-        <v>727</v>
+        <v>686</v>
       </c>
       <c r="C354">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D354">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355">
-        <v>1009</v>
+        <v>24</v>
       </c>
       <c r="B355">
-        <v>728</v>
+        <v>698</v>
       </c>
       <c r="C355">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356">
-        <v>1012</v>
+        <v>24</v>
       </c>
       <c r="B356">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C356">
         <v>1</v>
       </c>
       <c r="D356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357">
-        <v>1019</v>
+        <v>24</v>
       </c>
       <c r="B357">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="C357">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D357">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358">
-        <v>1019</v>
+        <v>24</v>
       </c>
       <c r="B358">
-        <v>728</v>
+        <v>762</v>
       </c>
       <c r="C358">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359">
-        <v>1027</v>
+        <v>25</v>
       </c>
       <c r="B359">
-        <v>728</v>
+        <v>681</v>
       </c>
       <c r="C359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D359">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360">
-        <v>1006</v>
+        <v>25</v>
       </c>
       <c r="B360">
-        <v>729</v>
+        <v>681</v>
       </c>
       <c r="C360">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361">
-        <v>1012</v>
+        <v>25</v>
       </c>
       <c r="B361">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="C361">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362">
-        <v>1019</v>
+        <v>25</v>
       </c>
       <c r="B362">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D362">
         <v>3</v>
@@ -5521,38 +5521,38 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363">
-        <v>1019</v>
+        <v>26</v>
       </c>
       <c r="B363">
-        <v>729</v>
+        <v>252</v>
       </c>
       <c r="C363">
         <v>1</v>
       </c>
       <c r="D363">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364">
-        <v>1023</v>
+        <v>26</v>
       </c>
       <c r="B364">
-        <v>730</v>
+        <v>252</v>
       </c>
       <c r="C364">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
-        <v>1035</v>
+        <v>26</v>
       </c>
       <c r="B365">
-        <v>730</v>
+        <v>702</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -5563,83 +5563,83 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366">
-        <v>1035</v>
+        <v>27</v>
       </c>
       <c r="B366">
-        <v>730</v>
+        <v>283</v>
       </c>
       <c r="C366">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367">
-        <v>1009</v>
+        <v>27</v>
       </c>
       <c r="B367">
-        <v>731</v>
+        <v>690</v>
       </c>
       <c r="C367">
         <v>1</v>
       </c>
       <c r="D367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368">
-        <v>1010</v>
+        <v>27</v>
       </c>
       <c r="B368">
-        <v>731</v>
+        <v>699</v>
       </c>
       <c r="C368">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369">
-        <v>1012</v>
+        <v>27</v>
       </c>
       <c r="B369">
-        <v>731</v>
+        <v>745</v>
       </c>
       <c r="C369">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D369">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370">
-        <v>1026</v>
+        <v>28</v>
       </c>
       <c r="B370">
-        <v>731</v>
+        <v>687</v>
       </c>
       <c r="C370">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371">
-        <v>1033</v>
+        <v>28</v>
       </c>
       <c r="B371">
-        <v>731</v>
+        <v>702</v>
       </c>
       <c r="C371">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D371">
         <v>2</v>
@@ -5647,24 +5647,24 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372">
-        <v>1002</v>
+        <v>28</v>
       </c>
       <c r="B372">
-        <v>732</v>
+        <v>702</v>
       </c>
       <c r="C372">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373">
-        <v>1006</v>
+        <v>28</v>
       </c>
       <c r="B373">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="C373">
         <v>3</v>
@@ -5675,41 +5675,41 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374">
-        <v>1019</v>
+        <v>28</v>
       </c>
       <c r="B374">
         <v>732</v>
       </c>
       <c r="C374">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D374">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375">
-        <v>1019</v>
+        <v>28</v>
       </c>
       <c r="B375">
         <v>732</v>
       </c>
       <c r="C375">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376">
-        <v>1020</v>
+        <v>28</v>
       </c>
       <c r="B376">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C376">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D376">
         <v>1</v>
@@ -5717,13 +5717,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377">
-        <v>1030</v>
+        <v>28</v>
       </c>
       <c r="B377">
-        <v>732</v>
+        <v>753</v>
       </c>
       <c r="C377">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D377">
         <v>3</v>
@@ -5731,27 +5731,27 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378">
-        <v>1030</v>
+        <v>29</v>
       </c>
       <c r="B378">
-        <v>732</v>
+        <v>254</v>
       </c>
       <c r="C378">
         <v>2</v>
       </c>
       <c r="D378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379">
-        <v>1009</v>
+        <v>29</v>
       </c>
       <c r="B379">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="C379">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D379">
         <v>3</v>
@@ -5759,10 +5759,10 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380">
-        <v>1009</v>
+        <v>29</v>
       </c>
       <c r="B380">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="C380">
         <v>3</v>
@@ -5773,97 +5773,97 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381">
-        <v>1012</v>
+        <v>30</v>
       </c>
       <c r="B381">
-        <v>733</v>
+        <v>250</v>
       </c>
       <c r="C381">
         <v>0</v>
       </c>
       <c r="D381">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382">
-        <v>1015</v>
+        <v>30</v>
       </c>
       <c r="B382">
-        <v>733</v>
+        <v>252</v>
       </c>
       <c r="C382">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D382">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383">
-        <v>1018</v>
+        <v>30</v>
       </c>
       <c r="B383">
-        <v>733</v>
+        <v>252</v>
       </c>
       <c r="C383">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384">
-        <v>1033</v>
+        <v>30</v>
       </c>
       <c r="B384">
-        <v>733</v>
+        <v>262</v>
       </c>
       <c r="C384">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D384">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385">
-        <v>1042</v>
+        <v>30</v>
       </c>
       <c r="B385">
-        <v>733</v>
+        <v>675</v>
       </c>
       <c r="C385">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D385">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386">
-        <v>1006</v>
+        <v>30</v>
       </c>
       <c r="B386">
-        <v>734</v>
+        <v>682</v>
       </c>
       <c r="C386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D386">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387">
-        <v>1019</v>
+        <v>30</v>
       </c>
       <c r="B387">
-        <v>734</v>
+        <v>684</v>
       </c>
       <c r="C387">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D387">
         <v>0</v>
@@ -5871,69 +5871,69 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388">
-        <v>1023</v>
+        <v>30</v>
       </c>
       <c r="B388">
-        <v>734</v>
+        <v>705</v>
       </c>
       <c r="C388">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389">
-        <v>1033</v>
+        <v>30</v>
       </c>
       <c r="B389">
-        <v>735</v>
+        <v>705</v>
       </c>
       <c r="C389">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D389">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390">
-        <v>1006</v>
+        <v>30</v>
       </c>
       <c r="B390">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="C390">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D390">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391">
-        <v>1012</v>
+        <v>30</v>
       </c>
       <c r="B391">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C391">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392">
-        <v>1019</v>
+        <v>30</v>
       </c>
       <c r="B392">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="C392">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D392">
         <v>3</v>
@@ -5941,27 +5941,27 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393">
-        <v>1019</v>
+        <v>30</v>
       </c>
       <c r="B393">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="C393">
         <v>2</v>
       </c>
       <c r="D393">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394">
-        <v>1030</v>
+        <v>30</v>
       </c>
       <c r="B394">
-        <v>736</v>
+        <v>755</v>
       </c>
       <c r="C394">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D394">
         <v>1</v>
@@ -5969,125 +5969,125 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395">
-        <v>1002</v>
+        <v>30</v>
       </c>
       <c r="B395">
-        <v>737</v>
+        <v>758</v>
       </c>
       <c r="C395">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D395">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396">
-        <v>1005</v>
+        <v>31</v>
       </c>
       <c r="B396">
-        <v>737</v>
+        <v>251</v>
       </c>
       <c r="C396">
         <v>3</v>
       </c>
       <c r="D396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397">
-        <v>1019</v>
+        <v>31</v>
       </c>
       <c r="B397">
-        <v>737</v>
+        <v>261</v>
       </c>
       <c r="C397">
         <v>1</v>
       </c>
       <c r="D397">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398">
-        <v>1020</v>
+        <v>31</v>
       </c>
       <c r="B398">
-        <v>737</v>
+        <v>265</v>
       </c>
       <c r="C398">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D398">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399">
-        <v>1020</v>
+        <v>31</v>
       </c>
       <c r="B399">
-        <v>737</v>
+        <v>275</v>
       </c>
       <c r="C399">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D399">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400">
-        <v>1022</v>
+        <v>31</v>
       </c>
       <c r="B400">
-        <v>737</v>
+        <v>276</v>
       </c>
       <c r="C400">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401">
-        <v>1020</v>
+        <v>31</v>
       </c>
       <c r="B401">
-        <v>738</v>
+        <v>278</v>
       </c>
       <c r="C401">
         <v>3</v>
       </c>
       <c r="D401">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402">
-        <v>1033</v>
+        <v>31</v>
       </c>
       <c r="B402">
-        <v>738</v>
+        <v>282</v>
       </c>
       <c r="C402">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D402">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403">
-        <v>1033</v>
+        <v>31</v>
       </c>
       <c r="B403">
-        <v>738</v>
+        <v>283</v>
       </c>
       <c r="C403">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D403">
         <v>0</v>
@@ -6095,13 +6095,13 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404">
-        <v>1003</v>
+        <v>31</v>
       </c>
       <c r="B404">
-        <v>739</v>
+        <v>284</v>
       </c>
       <c r="C404">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D404">
         <v>0</v>
@@ -6109,13 +6109,13 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405">
-        <v>1007</v>
+        <v>31</v>
       </c>
       <c r="B405">
-        <v>739</v>
+        <v>286</v>
       </c>
       <c r="C405">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D405">
         <v>2</v>
@@ -6123,125 +6123,125 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406">
-        <v>1007</v>
+        <v>31</v>
       </c>
       <c r="B406">
-        <v>739</v>
+        <v>287</v>
       </c>
       <c r="C406">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D406">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407">
-        <v>1019</v>
+        <v>31</v>
       </c>
       <c r="B407">
-        <v>739</v>
+        <v>290</v>
       </c>
       <c r="C407">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408">
-        <v>1020</v>
+        <v>31</v>
       </c>
       <c r="B408">
-        <v>739</v>
+        <v>291</v>
       </c>
       <c r="C408">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409">
-        <v>1020</v>
+        <v>31</v>
       </c>
       <c r="B409">
-        <v>739</v>
+        <v>292</v>
       </c>
       <c r="C409">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D409">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410">
-        <v>1031</v>
+        <v>31</v>
       </c>
       <c r="B410">
-        <v>739</v>
+        <v>675</v>
       </c>
       <c r="C410">
         <v>3</v>
       </c>
       <c r="D410">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411">
-        <v>1009</v>
+        <v>31</v>
       </c>
       <c r="B411">
-        <v>741</v>
+        <v>676</v>
       </c>
       <c r="C411">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D411">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412">
-        <v>1012</v>
+        <v>31</v>
       </c>
       <c r="B412">
-        <v>741</v>
+        <v>681</v>
       </c>
       <c r="C412">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413">
-        <v>1012</v>
+        <v>31</v>
       </c>
       <c r="B413">
-        <v>741</v>
+        <v>682</v>
       </c>
       <c r="C413">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D413">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414">
-        <v>1019</v>
+        <v>31</v>
       </c>
       <c r="B414">
-        <v>741</v>
+        <v>684</v>
       </c>
       <c r="C414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D414">
         <v>3</v>
@@ -6249,55 +6249,55 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415">
-        <v>1019</v>
+        <v>31</v>
       </c>
       <c r="B415">
-        <v>741</v>
+        <v>686</v>
       </c>
       <c r="C415">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416">
-        <v>1014</v>
+        <v>31</v>
       </c>
       <c r="B416">
-        <v>742</v>
+        <v>688</v>
       </c>
       <c r="C416">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D416">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417">
-        <v>1002</v>
+        <v>31</v>
       </c>
       <c r="B417">
-        <v>743</v>
+        <v>689</v>
       </c>
       <c r="C417">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D417">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418">
-        <v>1002</v>
+        <v>31</v>
       </c>
       <c r="B418">
-        <v>743</v>
+        <v>689</v>
       </c>
       <c r="C418">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D418">
         <v>0</v>
@@ -6305,41 +6305,41 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419">
-        <v>1009</v>
+        <v>31</v>
       </c>
       <c r="B419">
-        <v>743</v>
+        <v>692</v>
       </c>
       <c r="C419">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D419">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420">
-        <v>1012</v>
+        <v>31</v>
       </c>
       <c r="B420">
-        <v>743</v>
+        <v>694</v>
       </c>
       <c r="C420">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D420">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421">
-        <v>1033</v>
+        <v>31</v>
       </c>
       <c r="B421">
-        <v>743</v>
+        <v>695</v>
       </c>
       <c r="C421">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D421">
         <v>2</v>
@@ -6347,251 +6347,251 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422">
-        <v>1042</v>
+        <v>31</v>
       </c>
       <c r="B422">
-        <v>743</v>
+        <v>697</v>
       </c>
       <c r="C422">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423">
-        <v>1002</v>
+        <v>31</v>
       </c>
       <c r="B423">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="C423">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424">
-        <v>1012</v>
+        <v>31</v>
       </c>
       <c r="B424">
-        <v>744</v>
+        <v>699</v>
       </c>
       <c r="C424">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D424">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425">
-        <v>1016</v>
+        <v>31</v>
       </c>
       <c r="B425">
-        <v>744</v>
+        <v>703</v>
       </c>
       <c r="C425">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426">
-        <v>1019</v>
+        <v>31</v>
       </c>
       <c r="B426">
-        <v>744</v>
+        <v>704</v>
       </c>
       <c r="C426">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D426">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427">
-        <v>1032</v>
+        <v>31</v>
       </c>
       <c r="B427">
-        <v>744</v>
+        <v>707</v>
       </c>
       <c r="C427">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D427">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428">
-        <v>1032</v>
+        <v>31</v>
       </c>
       <c r="B428">
-        <v>744</v>
+        <v>717</v>
       </c>
       <c r="C428">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D428">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429">
-        <v>1006</v>
+        <v>31</v>
       </c>
       <c r="B429">
-        <v>745</v>
+        <v>718</v>
       </c>
       <c r="C429">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D429">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430">
-        <v>1006</v>
+        <v>31</v>
       </c>
       <c r="B430">
-        <v>745</v>
+        <v>718</v>
       </c>
       <c r="C430">
         <v>2</v>
       </c>
       <c r="D430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431">
-        <v>1019</v>
+        <v>31</v>
       </c>
       <c r="B431">
-        <v>745</v>
+        <v>719</v>
       </c>
       <c r="C431">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D431">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432">
-        <v>1019</v>
+        <v>31</v>
       </c>
       <c r="B432">
-        <v>745</v>
+        <v>720</v>
       </c>
       <c r="C432">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D432">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433">
-        <v>1029</v>
+        <v>31</v>
       </c>
       <c r="B433">
-        <v>745</v>
+        <v>721</v>
       </c>
       <c r="C433">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D433">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434">
-        <v>1036</v>
+        <v>31</v>
       </c>
       <c r="B434">
-        <v>745</v>
+        <v>722</v>
       </c>
       <c r="C434">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D434">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435">
-        <v>1008</v>
+        <v>31</v>
       </c>
       <c r="B435">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="C435">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D435">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436">
-        <v>1008</v>
+        <v>31</v>
       </c>
       <c r="B436">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="C436">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437">
-        <v>1005</v>
+        <v>31</v>
       </c>
       <c r="B437">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="C437">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D437">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438">
-        <v>1019</v>
+        <v>31</v>
       </c>
       <c r="B438">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="C438">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D438">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439">
-        <v>1020</v>
+        <v>31</v>
       </c>
       <c r="B439">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="C439">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D439">
         <v>3</v>
@@ -6599,111 +6599,111 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440">
-        <v>1026</v>
+        <v>31</v>
       </c>
       <c r="B440">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="C440">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D440">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441">
-        <v>1002</v>
+        <v>31</v>
       </c>
       <c r="B441">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="C441">
         <v>1</v>
       </c>
       <c r="D441">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442">
-        <v>1019</v>
+        <v>31</v>
       </c>
       <c r="B442">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="C442">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D442">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443">
-        <v>1033</v>
+        <v>31</v>
       </c>
       <c r="B443">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C443">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D443">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444">
-        <v>1009</v>
+        <v>31</v>
       </c>
       <c r="B444">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C444">
         <v>3</v>
       </c>
       <c r="D444">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445">
-        <v>1036</v>
+        <v>31</v>
       </c>
       <c r="B445">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C445">
         <v>3</v>
       </c>
       <c r="D445">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446">
-        <v>1012</v>
+        <v>31</v>
       </c>
       <c r="B446">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C446">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447">
-        <v>1019</v>
+        <v>31</v>
       </c>
       <c r="B447">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C447">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D447">
         <v>0</v>
@@ -6711,69 +6711,69 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448">
-        <v>1023</v>
+        <v>31</v>
       </c>
       <c r="B448">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="C448">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D448">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449">
-        <v>1002</v>
+        <v>31</v>
       </c>
       <c r="B449">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C449">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D449">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450">
-        <v>1020</v>
+        <v>31</v>
       </c>
       <c r="B450">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="C450">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D450">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451">
-        <v>1033</v>
+        <v>31</v>
       </c>
       <c r="B451">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="C451">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D451">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452">
-        <v>1033</v>
+        <v>31</v>
       </c>
       <c r="B452">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="C452">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D452">
         <v>0</v>
@@ -6781,153 +6781,153 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453">
-        <v>1014</v>
+        <v>31</v>
       </c>
       <c r="B453">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="C453">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D453">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454">
-        <v>1021</v>
+        <v>31</v>
       </c>
       <c r="B454">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="C454">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D454">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455">
-        <v>1033</v>
+        <v>32</v>
       </c>
       <c r="B455">
-        <v>752</v>
+        <v>254</v>
       </c>
       <c r="C455">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D455">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456">
-        <v>1006</v>
+        <v>32</v>
       </c>
       <c r="B456">
-        <v>753</v>
+        <v>284</v>
       </c>
       <c r="C456">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D456">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457">
-        <v>1019</v>
+        <v>32</v>
       </c>
       <c r="B457">
-        <v>753</v>
+        <v>291</v>
       </c>
       <c r="C457">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458">
-        <v>1019</v>
+        <v>32</v>
       </c>
       <c r="B458">
-        <v>753</v>
+        <v>674</v>
       </c>
       <c r="C458">
         <v>1</v>
       </c>
       <c r="D458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459">
-        <v>1019</v>
+        <v>32</v>
       </c>
       <c r="B459">
-        <v>753</v>
+        <v>683</v>
       </c>
       <c r="C459">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460">
-        <v>1030</v>
+        <v>32</v>
       </c>
       <c r="B460">
-        <v>753</v>
+        <v>704</v>
       </c>
       <c r="C460">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D460">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461">
-        <v>1040</v>
+        <v>32</v>
       </c>
       <c r="B461">
-        <v>753</v>
+        <v>704</v>
       </c>
       <c r="C461">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462">
-        <v>1042</v>
+        <v>32</v>
       </c>
       <c r="B462">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="C462">
         <v>1</v>
       </c>
       <c r="D462">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463">
-        <v>1012</v>
+        <v>32</v>
       </c>
       <c r="B463">
-        <v>754</v>
+        <v>730</v>
       </c>
       <c r="C463">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D463">
         <v>0</v>
@@ -6935,27 +6935,27 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464">
-        <v>1023</v>
+        <v>32</v>
       </c>
       <c r="B464">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C464">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D464">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465">
-        <v>1010</v>
+        <v>33</v>
       </c>
       <c r="B465">
-        <v>755</v>
+        <v>251</v>
       </c>
       <c r="C465">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D465">
         <v>1</v>
@@ -6963,83 +6963,83 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466">
-        <v>1010</v>
+        <v>33</v>
       </c>
       <c r="B466">
-        <v>755</v>
+        <v>261</v>
       </c>
       <c r="C466">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467">
-        <v>1019</v>
+        <v>33</v>
       </c>
       <c r="B467">
-        <v>755</v>
+        <v>271</v>
       </c>
       <c r="C467">
         <v>2</v>
       </c>
       <c r="D467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468">
-        <v>1032</v>
+        <v>33</v>
       </c>
       <c r="B468">
-        <v>755</v>
+        <v>288</v>
       </c>
       <c r="C468">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D468">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469">
-        <v>1033</v>
+        <v>33</v>
       </c>
       <c r="B469">
-        <v>755</v>
+        <v>297</v>
       </c>
       <c r="C469">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D469">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470">
-        <v>1033</v>
+        <v>33</v>
       </c>
       <c r="B470">
-        <v>755</v>
+        <v>678</v>
       </c>
       <c r="C470">
         <v>5</v>
       </c>
       <c r="D470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471">
-        <v>1012</v>
+        <v>33</v>
       </c>
       <c r="B471">
-        <v>756</v>
+        <v>680</v>
       </c>
       <c r="C471">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D471">
         <v>3</v>
@@ -7047,13 +7047,13 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472">
-        <v>1019</v>
+        <v>33</v>
       </c>
       <c r="B472">
-        <v>756</v>
+        <v>680</v>
       </c>
       <c r="C472">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D472">
         <v>1</v>
@@ -7061,13 +7061,13 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473">
-        <v>1006</v>
+        <v>33</v>
       </c>
       <c r="B473">
-        <v>757</v>
+        <v>685</v>
       </c>
       <c r="C473">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D473">
         <v>2</v>
@@ -7075,13 +7075,13 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474">
-        <v>1012</v>
+        <v>33</v>
       </c>
       <c r="B474">
-        <v>757</v>
+        <v>688</v>
       </c>
       <c r="C474">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D474">
         <v>1</v>
@@ -7089,69 +7089,69 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475">
-        <v>1019</v>
+        <v>33</v>
       </c>
       <c r="B475">
-        <v>757</v>
+        <v>691</v>
       </c>
       <c r="C475">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476">
-        <v>1033</v>
+        <v>33</v>
       </c>
       <c r="B476">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="C476">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D476">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477">
-        <v>1005</v>
+        <v>33</v>
       </c>
       <c r="B477">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="C477">
         <v>3</v>
       </c>
       <c r="D477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478">
-        <v>1019</v>
+        <v>34</v>
       </c>
       <c r="B478">
-        <v>758</v>
+        <v>270</v>
       </c>
       <c r="C478">
         <v>1</v>
       </c>
       <c r="D478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479">
-        <v>1032</v>
+        <v>34</v>
       </c>
       <c r="B479">
-        <v>758</v>
+        <v>295</v>
       </c>
       <c r="C479">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D479">
         <v>2</v>
@@ -7159,52 +7159,52 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480">
-        <v>1033</v>
+        <v>34</v>
       </c>
       <c r="B480">
-        <v>758</v>
+        <v>680</v>
       </c>
       <c r="C480">
         <v>2</v>
       </c>
       <c r="D480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481">
-        <v>1033</v>
+        <v>35</v>
       </c>
       <c r="B481">
-        <v>758</v>
+        <v>684</v>
       </c>
       <c r="C481">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482">
-        <v>1035</v>
+        <v>35</v>
       </c>
       <c r="B482">
-        <v>758</v>
+        <v>692</v>
       </c>
       <c r="C482">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483">
-        <v>1006</v>
+        <v>36</v>
       </c>
       <c r="B483">
-        <v>759</v>
+        <v>284</v>
       </c>
       <c r="C483">
         <v>2</v>
@@ -7215,83 +7215,83 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484">
-        <v>1009</v>
+        <v>36</v>
       </c>
       <c r="B484">
-        <v>759</v>
+        <v>710</v>
       </c>
       <c r="C484">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D484">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485">
-        <v>1019</v>
+        <v>36</v>
       </c>
       <c r="B485">
-        <v>759</v>
+        <v>717</v>
       </c>
       <c r="C485">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D485">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486">
-        <v>1033</v>
+        <v>36</v>
       </c>
       <c r="B486">
-        <v>759</v>
+        <v>721</v>
       </c>
       <c r="C486">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D486">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487">
-        <v>1019</v>
+        <v>37</v>
       </c>
       <c r="B487">
-        <v>760</v>
+        <v>258</v>
       </c>
       <c r="C487">
         <v>3</v>
       </c>
       <c r="D487">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488">
-        <v>1019</v>
+        <v>37</v>
       </c>
       <c r="B488">
-        <v>760</v>
+        <v>258</v>
       </c>
       <c r="C488">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489">
-        <v>1006</v>
+        <v>37</v>
       </c>
       <c r="B489">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="C489">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D489">
         <v>2</v>
@@ -7299,94 +7299,94 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490">
-        <v>1019</v>
+        <v>38</v>
       </c>
       <c r="B490">
-        <v>761</v>
+        <v>285</v>
       </c>
       <c r="C490">
         <v>1</v>
       </c>
       <c r="D490">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491">
-        <v>1019</v>
+        <v>39</v>
       </c>
       <c r="B491">
-        <v>761</v>
+        <v>682</v>
       </c>
       <c r="C491">
         <v>1</v>
       </c>
       <c r="D491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492">
-        <v>1023</v>
+        <v>39</v>
       </c>
       <c r="B492">
-        <v>761</v>
+        <v>682</v>
       </c>
       <c r="C492">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493">
-        <v>1003</v>
+        <v>39</v>
       </c>
       <c r="B493">
-        <v>762</v>
+        <v>709</v>
       </c>
       <c r="C493">
         <v>1</v>
       </c>
       <c r="D493">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494">
-        <v>1009</v>
+        <v>39</v>
       </c>
       <c r="B494">
-        <v>762</v>
+        <v>709</v>
       </c>
       <c r="C494">
         <v>1</v>
       </c>
       <c r="D494">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495">
-        <v>1009</v>
+        <v>39</v>
       </c>
       <c r="B495">
-        <v>762</v>
+        <v>716</v>
       </c>
       <c r="C495">
         <v>1</v>
       </c>
       <c r="D495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496">
-        <v>1019</v>
+        <v>39</v>
       </c>
       <c r="B496">
-        <v>762</v>
+        <v>733</v>
       </c>
       <c r="C496">
         <v>1</v>
@@ -7397,35 +7397,35 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497">
-        <v>1026</v>
+        <v>39</v>
       </c>
       <c r="B497">
-        <v>762</v>
+        <v>743</v>
       </c>
       <c r="C497">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498">
-        <v>1033</v>
+        <v>39</v>
       </c>
       <c r="B498">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="C498">
         <v>1</v>
       </c>
       <c r="D498">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D498">
-    <sortCondition ref="B1"/>
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Pre-Filtered/ratings_data.xlsx
+++ b/data/Pre-Filtered/ratings_data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/coursework/Recommender/data/Pre-Filtered/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE47F129-D80D-7A4C-8BED-8F05BF57473F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244BD3C7-4E7F-FC46-B1EF-7119C4BF6591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13540" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ContextualRating" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="RatingNew" localSheetId="0">ContextualRating!$A$1:$K$508</definedName>
+    <definedName name="RatingNew" localSheetId="0">ContextualRating!$A$1:$K$506</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D498"/>
+  <dimension ref="A1:D496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="A491" sqref="A491:A498"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="A220" sqref="A220:XFD220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3430,7 +3430,7 @@
         <v>5</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -3444,7 +3444,7 @@
         <v>5</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -3452,13 +3452,13 @@
         <v>17</v>
       </c>
       <c r="B215">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C215">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -3469,10 +3469,10 @@
         <v>278</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -3480,10 +3480,10 @@
         <v>17</v>
       </c>
       <c r="B217">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -3494,13 +3494,13 @@
         <v>17</v>
       </c>
       <c r="B218">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -3508,13 +3508,13 @@
         <v>17</v>
       </c>
       <c r="B219">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D219">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -3528,7 +3528,7 @@
         <v>5</v>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -3536,13 +3536,13 @@
         <v>17</v>
       </c>
       <c r="B221">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C221">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -3550,13 +3550,13 @@
         <v>17</v>
       </c>
       <c r="B222">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C222">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -3564,13 +3564,13 @@
         <v>17</v>
       </c>
       <c r="B223">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -3578,7 +3578,7 @@
         <v>17</v>
       </c>
       <c r="B224">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -3592,7 +3592,7 @@
         <v>17</v>
       </c>
       <c r="B225">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -3606,13 +3606,13 @@
         <v>17</v>
       </c>
       <c r="B226">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D226">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -3620,13 +3620,13 @@
         <v>17</v>
       </c>
       <c r="B227">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -3634,13 +3634,13 @@
         <v>17</v>
       </c>
       <c r="B228">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C228">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -3648,13 +3648,13 @@
         <v>17</v>
       </c>
       <c r="B229">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C229">
         <v>5</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -3662,13 +3662,13 @@
         <v>17</v>
       </c>
       <c r="B230">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C230">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D230">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -3676,13 +3676,13 @@
         <v>17</v>
       </c>
       <c r="B231">
-        <v>293</v>
+        <v>676</v>
       </c>
       <c r="C231">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -3690,10 +3690,10 @@
         <v>17</v>
       </c>
       <c r="B232">
-        <v>296</v>
+        <v>678</v>
       </c>
       <c r="C232">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -3704,10 +3704,10 @@
         <v>17</v>
       </c>
       <c r="B233">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -3718,13 +3718,13 @@
         <v>17</v>
       </c>
       <c r="B234">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -3732,13 +3732,13 @@
         <v>17</v>
       </c>
       <c r="B235">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -3746,13 +3746,13 @@
         <v>17</v>
       </c>
       <c r="B236">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -3760,13 +3760,13 @@
         <v>17</v>
       </c>
       <c r="B237">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -3774,13 +3774,13 @@
         <v>17</v>
       </c>
       <c r="B238">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -3788,13 +3788,13 @@
         <v>17</v>
       </c>
       <c r="B239">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C239">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -3802,13 +3802,13 @@
         <v>17</v>
       </c>
       <c r="B240">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -3816,13 +3816,13 @@
         <v>17</v>
       </c>
       <c r="B241">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D241">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -3830,7 +3830,7 @@
         <v>17</v>
       </c>
       <c r="B242">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -3844,13 +3844,13 @@
         <v>17</v>
       </c>
       <c r="B243">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="C243">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -3858,7 +3858,7 @@
         <v>17</v>
       </c>
       <c r="B244">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -3872,13 +3872,13 @@
         <v>17</v>
       </c>
       <c r="B245">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -3886,7 +3886,7 @@
         <v>17</v>
       </c>
       <c r="B246">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -3900,13 +3900,13 @@
         <v>17</v>
       </c>
       <c r="B247">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -3914,7 +3914,7 @@
         <v>17</v>
       </c>
       <c r="B248">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -3928,13 +3928,13 @@
         <v>17</v>
       </c>
       <c r="B249">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -3942,10 +3942,10 @@
         <v>17</v>
       </c>
       <c r="B250">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D250">
         <v>2</v>
@@ -3956,7 +3956,7 @@
         <v>17</v>
       </c>
       <c r="B251">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -3970,13 +3970,13 @@
         <v>17</v>
       </c>
       <c r="B252">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -3984,13 +3984,13 @@
         <v>17</v>
       </c>
       <c r="B253">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -3998,13 +3998,13 @@
         <v>17</v>
       </c>
       <c r="B254">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C254">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -4012,13 +4012,13 @@
         <v>17</v>
       </c>
       <c r="B255">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D255">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -4026,13 +4026,13 @@
         <v>17</v>
       </c>
       <c r="B256">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -4040,13 +4040,13 @@
         <v>17</v>
       </c>
       <c r="B257">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C257">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D257">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -4054,13 +4054,13 @@
         <v>17</v>
       </c>
       <c r="B258">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -4068,13 +4068,13 @@
         <v>17</v>
       </c>
       <c r="B259">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -4082,13 +4082,13 @@
         <v>17</v>
       </c>
       <c r="B260">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -4096,13 +4096,13 @@
         <v>17</v>
       </c>
       <c r="B261">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -4110,13 +4110,13 @@
         <v>17</v>
       </c>
       <c r="B262">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -4124,13 +4124,13 @@
         <v>17</v>
       </c>
       <c r="B263">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -4138,13 +4138,13 @@
         <v>17</v>
       </c>
       <c r="B264">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -4152,10 +4152,10 @@
         <v>17</v>
       </c>
       <c r="B265">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D265">
         <v>2</v>
@@ -4166,13 +4166,13 @@
         <v>17</v>
       </c>
       <c r="B266">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D266">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -4180,13 +4180,13 @@
         <v>17</v>
       </c>
       <c r="B267">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -4194,10 +4194,10 @@
         <v>17</v>
       </c>
       <c r="B268">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D268">
         <v>3</v>
@@ -4208,7 +4208,7 @@
         <v>17</v>
       </c>
       <c r="B269">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -4222,13 +4222,13 @@
         <v>17</v>
       </c>
       <c r="B270">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -4236,7 +4236,7 @@
         <v>17</v>
       </c>
       <c r="B271">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -4250,13 +4250,13 @@
         <v>17</v>
       </c>
       <c r="B272">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -4264,13 +4264,13 @@
         <v>17</v>
       </c>
       <c r="B273">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -4278,13 +4278,13 @@
         <v>17</v>
       </c>
       <c r="B274">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C274">
         <v>2</v>
       </c>
       <c r="D274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -4292,13 +4292,13 @@
         <v>17</v>
       </c>
       <c r="B275">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -4306,10 +4306,10 @@
         <v>17</v>
       </c>
       <c r="B276">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D276">
         <v>1</v>
@@ -4320,13 +4320,13 @@
         <v>17</v>
       </c>
       <c r="B277">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -4334,13 +4334,13 @@
         <v>17</v>
       </c>
       <c r="B278">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -4348,13 +4348,13 @@
         <v>17</v>
       </c>
       <c r="B279">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -4362,13 +4362,13 @@
         <v>17</v>
       </c>
       <c r="B280">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -4376,13 +4376,13 @@
         <v>17</v>
       </c>
       <c r="B281">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -4390,13 +4390,13 @@
         <v>17</v>
       </c>
       <c r="B282">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D282">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -4404,13 +4404,13 @@
         <v>17</v>
       </c>
       <c r="B283">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -4418,13 +4418,13 @@
         <v>17</v>
       </c>
       <c r="B284">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -4432,13 +4432,13 @@
         <v>17</v>
       </c>
       <c r="B285">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="C285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D285">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -4446,13 +4446,13 @@
         <v>17</v>
       </c>
       <c r="B286">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="D287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -4474,13 +4474,13 @@
         <v>17</v>
       </c>
       <c r="B288">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -4488,13 +4488,13 @@
         <v>17</v>
       </c>
       <c r="B289">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -4502,13 +4502,13 @@
         <v>17</v>
       </c>
       <c r="B290">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -4516,13 +4516,13 @@
         <v>17</v>
       </c>
       <c r="B291">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -4530,13 +4530,13 @@
         <v>17</v>
       </c>
       <c r="B292">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -4544,13 +4544,13 @@
         <v>17</v>
       </c>
       <c r="B293">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D293">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -4558,13 +4558,13 @@
         <v>17</v>
       </c>
       <c r="B294">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D294">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -4572,13 +4572,13 @@
         <v>17</v>
       </c>
       <c r="B295">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C295">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D295">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -4586,13 +4586,13 @@
         <v>17</v>
       </c>
       <c r="B296">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C296">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -4600,41 +4600,41 @@
         <v>17</v>
       </c>
       <c r="B297">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C297">
         <v>1</v>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B298">
-        <v>761</v>
+        <v>281</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B299">
-        <v>762</v>
+        <v>296</v>
       </c>
       <c r="C299">
         <v>1</v>
       </c>
       <c r="D299">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -4642,13 +4642,13 @@
         <v>18</v>
       </c>
       <c r="B300">
-        <v>281</v>
+        <v>684</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D300">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -4656,13 +4656,13 @@
         <v>18</v>
       </c>
       <c r="B301">
-        <v>296</v>
+        <v>695</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -4670,10 +4670,10 @@
         <v>18</v>
       </c>
       <c r="B302">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="C302">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -4684,13 +4684,13 @@
         <v>18</v>
       </c>
       <c r="B303">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="C303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D303">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -4698,13 +4698,13 @@
         <v>18</v>
       </c>
       <c r="B304">
-        <v>695</v>
+        <v>714</v>
       </c>
       <c r="C304">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D304">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -4712,13 +4712,13 @@
         <v>18</v>
       </c>
       <c r="B305">
-        <v>702</v>
+        <v>722</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
       <c r="D305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -4726,13 +4726,13 @@
         <v>18</v>
       </c>
       <c r="B306">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="C306">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D306">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -4740,10 +4740,10 @@
         <v>18</v>
       </c>
       <c r="B307">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="C307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D307">
         <v>1</v>
@@ -4754,13 +4754,13 @@
         <v>18</v>
       </c>
       <c r="B308">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="C308">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D308">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -4768,13 +4768,13 @@
         <v>18</v>
       </c>
       <c r="B309">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="C309">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -4782,10 +4782,10 @@
         <v>18</v>
       </c>
       <c r="B310">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C310">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -4796,13 +4796,13 @@
         <v>18</v>
       </c>
       <c r="B311">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C311">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -4810,10 +4810,10 @@
         <v>18</v>
       </c>
       <c r="B312">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C312">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -4824,13 +4824,13 @@
         <v>18</v>
       </c>
       <c r="B313">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="C313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D313">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -4838,41 +4838,41 @@
         <v>18</v>
       </c>
       <c r="B314">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="C314">
         <v>0</v>
       </c>
       <c r="D314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B315">
-        <v>747</v>
+        <v>683</v>
       </c>
       <c r="C315">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D315">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B316">
-        <v>751</v>
+        <v>708</v>
       </c>
       <c r="C316">
         <v>0</v>
       </c>
       <c r="D316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -4880,38 +4880,38 @@
         <v>19</v>
       </c>
       <c r="B317">
-        <v>683</v>
+        <v>752</v>
       </c>
       <c r="C317">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D317">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B318">
-        <v>708</v>
+        <v>254</v>
       </c>
       <c r="C318">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B319">
-        <v>752</v>
+        <v>281</v>
       </c>
       <c r="C319">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D319">
         <v>2</v>
@@ -4922,10 +4922,10 @@
         <v>20</v>
       </c>
       <c r="B320">
-        <v>254</v>
+        <v>678</v>
       </c>
       <c r="C320">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -4936,13 +4936,13 @@
         <v>20</v>
       </c>
       <c r="B321">
-        <v>281</v>
+        <v>710</v>
       </c>
       <c r="C321">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -4950,38 +4950,38 @@
         <v>20</v>
       </c>
       <c r="B322">
-        <v>678</v>
+        <v>737</v>
       </c>
       <c r="C322">
         <v>1</v>
       </c>
       <c r="D322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B323">
-        <v>710</v>
+        <v>251</v>
       </c>
       <c r="C323">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B324">
-        <v>737</v>
+        <v>252</v>
       </c>
       <c r="C324">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D324">
         <v>2</v>
@@ -4992,10 +4992,10 @@
         <v>21</v>
       </c>
       <c r="B325">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C325">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D325">
         <v>2</v>
@@ -5006,7 +5006,7 @@
         <v>21</v>
       </c>
       <c r="B326">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="C326">
         <v>2</v>
@@ -5020,13 +5020,13 @@
         <v>21</v>
       </c>
       <c r="B327">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="C327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D327">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -5034,13 +5034,13 @@
         <v>21</v>
       </c>
       <c r="B328">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C328">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D328">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -5048,13 +5048,13 @@
         <v>21</v>
       </c>
       <c r="B329">
-        <v>280</v>
+        <v>680</v>
       </c>
       <c r="C329">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D329">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -5062,13 +5062,13 @@
         <v>21</v>
       </c>
       <c r="B330">
-        <v>282</v>
+        <v>682</v>
       </c>
       <c r="C330">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -5076,13 +5076,13 @@
         <v>21</v>
       </c>
       <c r="B331">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C331">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D331">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -5090,7 +5090,7 @@
         <v>21</v>
       </c>
       <c r="B332">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="C332">
         <v>4</v>
@@ -5104,13 +5104,13 @@
         <v>21</v>
       </c>
       <c r="B333">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="C333">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D333">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -5118,10 +5118,10 @@
         <v>21</v>
       </c>
       <c r="B334">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="C334">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -5132,13 +5132,13 @@
         <v>21</v>
       </c>
       <c r="B335">
-        <v>699</v>
+        <v>725</v>
       </c>
       <c r="C335">
         <v>2</v>
       </c>
       <c r="D335">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -5146,13 +5146,13 @@
         <v>21</v>
       </c>
       <c r="B336">
-        <v>699</v>
+        <v>730</v>
       </c>
       <c r="C336">
         <v>5</v>
       </c>
       <c r="D336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -5160,13 +5160,13 @@
         <v>21</v>
       </c>
       <c r="B337">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="C337">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D337">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -5174,13 +5174,13 @@
         <v>21</v>
       </c>
       <c r="B338">
-        <v>730</v>
+        <v>750</v>
       </c>
       <c r="C338">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D338">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -5188,13 +5188,13 @@
         <v>21</v>
       </c>
       <c r="B339">
-        <v>734</v>
+        <v>754</v>
       </c>
       <c r="C339">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -5202,41 +5202,41 @@
         <v>21</v>
       </c>
       <c r="B340">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="C340">
         <v>2</v>
       </c>
       <c r="D340">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B341">
-        <v>754</v>
+        <v>259</v>
       </c>
       <c r="C341">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D341">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B342">
-        <v>761</v>
+        <v>283</v>
       </c>
       <c r="C342">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D342">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -5244,10 +5244,10 @@
         <v>22</v>
       </c>
       <c r="B343">
-        <v>259</v>
+        <v>705</v>
       </c>
       <c r="C343">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D343">
         <v>2</v>
@@ -5258,69 +5258,69 @@
         <v>22</v>
       </c>
       <c r="B344">
-        <v>283</v>
+        <v>717</v>
       </c>
       <c r="C344">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D344">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B345">
-        <v>705</v>
+        <v>251</v>
       </c>
       <c r="C345">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B346">
-        <v>717</v>
+        <v>291</v>
       </c>
       <c r="C346">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D346">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B347">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C347">
         <v>5</v>
       </c>
       <c r="D347">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B348">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="C348">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -5328,13 +5328,13 @@
         <v>24</v>
       </c>
       <c r="B349">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C349">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D349">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -5342,13 +5342,13 @@
         <v>24</v>
       </c>
       <c r="B350">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C350">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D350">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -5356,13 +5356,13 @@
         <v>24</v>
       </c>
       <c r="B351">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C351">
         <v>1</v>
       </c>
       <c r="D351">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -5370,13 +5370,13 @@
         <v>24</v>
       </c>
       <c r="B352">
-        <v>276</v>
+        <v>686</v>
       </c>
       <c r="C352">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D352">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -5384,13 +5384,13 @@
         <v>24</v>
       </c>
       <c r="B353">
-        <v>290</v>
+        <v>698</v>
       </c>
       <c r="C353">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D353">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -5398,13 +5398,13 @@
         <v>24</v>
       </c>
       <c r="B354">
-        <v>686</v>
+        <v>731</v>
       </c>
       <c r="C354">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D354">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -5412,13 +5412,13 @@
         <v>24</v>
       </c>
       <c r="B355">
-        <v>698</v>
+        <v>747</v>
       </c>
       <c r="C355">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -5426,24 +5426,24 @@
         <v>24</v>
       </c>
       <c r="B356">
-        <v>731</v>
+        <v>762</v>
       </c>
       <c r="C356">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B357">
-        <v>747</v>
+        <v>681</v>
       </c>
       <c r="C357">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D357">
         <v>2</v>
@@ -5451,13 +5451,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B358">
-        <v>762</v>
+        <v>681</v>
       </c>
       <c r="C358">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D358">
         <v>0</v>
@@ -5468,13 +5468,13 @@
         <v>25</v>
       </c>
       <c r="B359">
-        <v>681</v>
+        <v>712</v>
       </c>
       <c r="C359">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -5482,41 +5482,41 @@
         <v>25</v>
       </c>
       <c r="B360">
-        <v>681</v>
+        <v>728</v>
       </c>
       <c r="C360">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D360">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B361">
-        <v>712</v>
+        <v>252</v>
       </c>
       <c r="C361">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D361">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B362">
-        <v>728</v>
+        <v>252</v>
       </c>
       <c r="C362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D362">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -5524,7 +5524,7 @@
         <v>26</v>
       </c>
       <c r="B363">
-        <v>252</v>
+        <v>702</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -5535,30 +5535,30 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B364">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="C364">
         <v>1</v>
       </c>
       <c r="D364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B365">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C365">
         <v>1</v>
       </c>
       <c r="D365">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -5566,10 +5566,10 @@
         <v>27</v>
       </c>
       <c r="B366">
-        <v>283</v>
+        <v>699</v>
       </c>
       <c r="C366">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D366">
         <v>2</v>
@@ -5580,41 +5580,41 @@
         <v>27</v>
       </c>
       <c r="B367">
-        <v>690</v>
+        <v>745</v>
       </c>
       <c r="C367">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D367">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B368">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="C368">
         <v>4</v>
       </c>
       <c r="D368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B369">
-        <v>745</v>
+        <v>702</v>
       </c>
       <c r="C369">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D369">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -5622,13 +5622,13 @@
         <v>28</v>
       </c>
       <c r="B370">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="C370">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -5636,13 +5636,13 @@
         <v>28</v>
       </c>
       <c r="B371">
-        <v>702</v>
+        <v>725</v>
       </c>
       <c r="C371">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D371">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -5650,13 +5650,13 @@
         <v>28</v>
       </c>
       <c r="B372">
-        <v>702</v>
+        <v>732</v>
       </c>
       <c r="C372">
         <v>2</v>
       </c>
       <c r="D372">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -5664,13 +5664,13 @@
         <v>28</v>
       </c>
       <c r="B373">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="C373">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D373">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -5678,13 +5678,13 @@
         <v>28</v>
       </c>
       <c r="B374">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C374">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D374">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -5692,24 +5692,24 @@
         <v>28</v>
       </c>
       <c r="B375">
-        <v>732</v>
+        <v>753</v>
       </c>
       <c r="C375">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D375">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B376">
-        <v>736</v>
+        <v>254</v>
       </c>
       <c r="C376">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D376">
         <v>1</v>
@@ -5717,13 +5717,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B377">
-        <v>753</v>
+        <v>724</v>
       </c>
       <c r="C377">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D377">
         <v>3</v>
@@ -5734,24 +5734,24 @@
         <v>29</v>
       </c>
       <c r="B378">
-        <v>254</v>
+        <v>739</v>
       </c>
       <c r="C378">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B379">
-        <v>724</v>
+        <v>250</v>
       </c>
       <c r="C379">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D379">
         <v>3</v>
@@ -5759,16 +5759,16 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B380">
-        <v>739</v>
+        <v>252</v>
       </c>
       <c r="C380">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D380">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -5776,13 +5776,13 @@
         <v>30</v>
       </c>
       <c r="B381">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C381">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D381">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -5790,13 +5790,13 @@
         <v>30</v>
       </c>
       <c r="B382">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C382">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D382">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -5804,13 +5804,13 @@
         <v>30</v>
       </c>
       <c r="B383">
-        <v>252</v>
+        <v>675</v>
       </c>
       <c r="C383">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -5818,13 +5818,13 @@
         <v>30</v>
       </c>
       <c r="B384">
-        <v>262</v>
+        <v>682</v>
       </c>
       <c r="C384">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D384">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -5832,13 +5832,13 @@
         <v>30</v>
       </c>
       <c r="B385">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="C385">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -5846,13 +5846,13 @@
         <v>30</v>
       </c>
       <c r="B386">
-        <v>682</v>
+        <v>705</v>
       </c>
       <c r="C386">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D386">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -5860,10 +5860,10 @@
         <v>30</v>
       </c>
       <c r="B387">
-        <v>684</v>
+        <v>705</v>
       </c>
       <c r="C387">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D387">
         <v>0</v>
@@ -5874,10 +5874,10 @@
         <v>30</v>
       </c>
       <c r="B388">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C388">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D388">
         <v>2</v>
@@ -5888,7 +5888,7 @@
         <v>30</v>
       </c>
       <c r="B389">
-        <v>705</v>
+        <v>727</v>
       </c>
       <c r="C389">
         <v>4</v>
@@ -5902,13 +5902,13 @@
         <v>30</v>
       </c>
       <c r="B390">
-        <v>724</v>
+        <v>744</v>
       </c>
       <c r="C390">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D390">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -5916,13 +5916,13 @@
         <v>30</v>
       </c>
       <c r="B391">
-        <v>727</v>
+        <v>744</v>
       </c>
       <c r="C391">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -5930,13 +5930,13 @@
         <v>30</v>
       </c>
       <c r="B392">
-        <v>744</v>
+        <v>755</v>
       </c>
       <c r="C392">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D392">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -5944,10 +5944,10 @@
         <v>30</v>
       </c>
       <c r="B393">
-        <v>744</v>
+        <v>758</v>
       </c>
       <c r="C393">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D393">
         <v>2</v>
@@ -5955,30 +5955,30 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B394">
-        <v>755</v>
+        <v>251</v>
       </c>
       <c r="C394">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D394">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B395">
-        <v>758</v>
+        <v>261</v>
       </c>
       <c r="C395">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D395">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -5986,7 +5986,7 @@
         <v>31</v>
       </c>
       <c r="B396">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="C396">
         <v>3</v>
@@ -6000,7 +6000,7 @@
         <v>31</v>
       </c>
       <c r="B397">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -6014,13 +6014,13 @@
         <v>31</v>
       </c>
       <c r="B398">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C398">
         <v>3</v>
       </c>
       <c r="D398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -6028,13 +6028,13 @@
         <v>31</v>
       </c>
       <c r="B399">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C399">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D399">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -6042,13 +6042,13 @@
         <v>31</v>
       </c>
       <c r="B400">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C400">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D400">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -6056,13 +6056,13 @@
         <v>31</v>
       </c>
       <c r="B401">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C401">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -6070,13 +6070,13 @@
         <v>31</v>
       </c>
       <c r="B402">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C402">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D402">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -6084,13 +6084,13 @@
         <v>31</v>
       </c>
       <c r="B403">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C403">
         <v>4</v>
       </c>
       <c r="D403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -6098,13 +6098,13 @@
         <v>31</v>
       </c>
       <c r="B404">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C404">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -6112,13 +6112,13 @@
         <v>31</v>
       </c>
       <c r="B405">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C405">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -6126,13 +6126,13 @@
         <v>31</v>
       </c>
       <c r="B406">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C406">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -6140,13 +6140,13 @@
         <v>31</v>
       </c>
       <c r="B407">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C407">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -6154,13 +6154,13 @@
         <v>31</v>
       </c>
       <c r="B408">
-        <v>291</v>
+        <v>675</v>
       </c>
       <c r="C408">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D408">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -6168,13 +6168,13 @@
         <v>31</v>
       </c>
       <c r="B409">
-        <v>292</v>
+        <v>676</v>
       </c>
       <c r="C409">
         <v>4</v>
       </c>
       <c r="D409">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -6182,13 +6182,13 @@
         <v>31</v>
       </c>
       <c r="B410">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="C410">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D410">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -6196,10 +6196,10 @@
         <v>31</v>
       </c>
       <c r="B411">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C411">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D411">
         <v>3</v>
@@ -6210,13 +6210,13 @@
         <v>31</v>
       </c>
       <c r="B412">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C412">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D412">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -6224,13 +6224,13 @@
         <v>31</v>
       </c>
       <c r="B413">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C413">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D413">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -6238,7 +6238,7 @@
         <v>31</v>
       </c>
       <c r="B414">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C414">
         <v>3</v>
@@ -6252,10 +6252,10 @@
         <v>31</v>
       </c>
       <c r="B415">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C415">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D415">
         <v>1</v>
@@ -6266,13 +6266,13 @@
         <v>31</v>
       </c>
       <c r="B416">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C416">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D416">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -6280,10 +6280,10 @@
         <v>31</v>
       </c>
       <c r="B417">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C417">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D417">
         <v>1</v>
@@ -6294,13 +6294,13 @@
         <v>31</v>
       </c>
       <c r="B418">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="C418">
         <v>4</v>
       </c>
       <c r="D418">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
@@ -6308,13 +6308,13 @@
         <v>31</v>
       </c>
       <c r="B419">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C419">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D419">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
@@ -6322,13 +6322,13 @@
         <v>31</v>
       </c>
       <c r="B420">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C420">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D420">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
@@ -6336,13 +6336,13 @@
         <v>31</v>
       </c>
       <c r="B421">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C421">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
@@ -6350,13 +6350,13 @@
         <v>31</v>
       </c>
       <c r="B422">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C422">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -6364,10 +6364,10 @@
         <v>31</v>
       </c>
       <c r="B423">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="C423">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D423">
         <v>0</v>
@@ -6378,13 +6378,13 @@
         <v>31</v>
       </c>
       <c r="B424">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="C424">
         <v>3</v>
       </c>
       <c r="D424">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -6392,13 +6392,13 @@
         <v>31</v>
       </c>
       <c r="B425">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C425">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -6406,10 +6406,10 @@
         <v>31</v>
       </c>
       <c r="B426">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="C426">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D426">
         <v>3</v>
@@ -6420,13 +6420,13 @@
         <v>31</v>
       </c>
       <c r="B427">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="C427">
         <v>5</v>
       </c>
       <c r="D427">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -6434,13 +6434,13 @@
         <v>31</v>
       </c>
       <c r="B428">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C428">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D428">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -6448,13 +6448,13 @@
         <v>31</v>
       </c>
       <c r="B429">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C429">
         <v>5</v>
       </c>
       <c r="D429">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -6462,13 +6462,13 @@
         <v>31</v>
       </c>
       <c r="B430">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C430">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D430">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -6476,13 +6476,13 @@
         <v>31</v>
       </c>
       <c r="B431">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C431">
         <v>5</v>
       </c>
       <c r="D431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -6490,13 +6490,13 @@
         <v>31</v>
       </c>
       <c r="B432">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C432">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D432">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
@@ -6504,13 +6504,13 @@
         <v>31</v>
       </c>
       <c r="B433">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C433">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
@@ -6518,10 +6518,10 @@
         <v>31</v>
       </c>
       <c r="B434">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C434">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D434">
         <v>1</v>
@@ -6532,13 +6532,13 @@
         <v>31</v>
       </c>
       <c r="B435">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C435">
         <v>4</v>
       </c>
       <c r="D435">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -6546,13 +6546,13 @@
         <v>31</v>
       </c>
       <c r="B436">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="C436">
         <v>1</v>
       </c>
       <c r="D436">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -6560,13 +6560,13 @@
         <v>31</v>
       </c>
       <c r="B437">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="C437">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D437">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -6574,13 +6574,13 @@
         <v>31</v>
       </c>
       <c r="B438">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C438">
         <v>1</v>
       </c>
       <c r="D438">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -6588,13 +6588,13 @@
         <v>31</v>
       </c>
       <c r="B439">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="C439">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D439">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -6602,13 +6602,13 @@
         <v>31</v>
       </c>
       <c r="B440">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C440">
         <v>1</v>
       </c>
       <c r="D440">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -6616,10 +6616,10 @@
         <v>31</v>
       </c>
       <c r="B441">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="C441">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D441">
         <v>2</v>
@@ -6630,13 +6630,13 @@
         <v>31</v>
       </c>
       <c r="B442">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="C442">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D442">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -6644,13 +6644,13 @@
         <v>31</v>
       </c>
       <c r="B443">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="C443">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D443">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -6658,13 +6658,13 @@
         <v>31</v>
       </c>
       <c r="B444">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C444">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D444">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -6672,13 +6672,13 @@
         <v>31</v>
       </c>
       <c r="B445">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C445">
         <v>3</v>
       </c>
       <c r="D445">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -6686,13 +6686,13 @@
         <v>31</v>
       </c>
       <c r="B446">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C446">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -6700,10 +6700,10 @@
         <v>31</v>
       </c>
       <c r="B447">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C447">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D447">
         <v>0</v>
@@ -6714,13 +6714,13 @@
         <v>31</v>
       </c>
       <c r="B448">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C448">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D448">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
@@ -6728,13 +6728,13 @@
         <v>31</v>
       </c>
       <c r="B449">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C449">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
@@ -6742,13 +6742,13 @@
         <v>31</v>
       </c>
       <c r="B450">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C450">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D450">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
@@ -6756,7 +6756,7 @@
         <v>31</v>
       </c>
       <c r="B451">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C451">
         <v>2</v>
@@ -6770,38 +6770,38 @@
         <v>31</v>
       </c>
       <c r="B452">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C452">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D452">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B453">
-        <v>759</v>
+        <v>254</v>
       </c>
       <c r="C453">
         <v>2</v>
       </c>
       <c r="D453">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B454">
-        <v>762</v>
+        <v>284</v>
       </c>
       <c r="C454">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D454">
         <v>3</v>
@@ -6812,13 +6812,13 @@
         <v>32</v>
       </c>
       <c r="B455">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="C455">
         <v>2</v>
       </c>
       <c r="D455">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
@@ -6826,13 +6826,13 @@
         <v>32</v>
       </c>
       <c r="B456">
-        <v>284</v>
+        <v>674</v>
       </c>
       <c r="C456">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D456">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -6840,13 +6840,13 @@
         <v>32</v>
       </c>
       <c r="B457">
-        <v>291</v>
+        <v>683</v>
       </c>
       <c r="C457">
         <v>2</v>
       </c>
       <c r="D457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -6854,10 +6854,10 @@
         <v>32</v>
       </c>
       <c r="B458">
-        <v>674</v>
+        <v>704</v>
       </c>
       <c r="C458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D458">
         <v>2</v>
@@ -6868,13 +6868,13 @@
         <v>32</v>
       </c>
       <c r="B459">
-        <v>683</v>
+        <v>704</v>
       </c>
       <c r="C459">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -6882,13 +6882,13 @@
         <v>32</v>
       </c>
       <c r="B460">
-        <v>704</v>
+        <v>730</v>
       </c>
       <c r="C460">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D460">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -6896,10 +6896,10 @@
         <v>32</v>
       </c>
       <c r="B461">
-        <v>704</v>
+        <v>730</v>
       </c>
       <c r="C461">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D461">
         <v>0</v>
@@ -6910,35 +6910,35 @@
         <v>32</v>
       </c>
       <c r="B462">
-        <v>730</v>
+        <v>758</v>
       </c>
       <c r="C462">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D462">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B463">
-        <v>730</v>
+        <v>251</v>
       </c>
       <c r="C463">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B464">
-        <v>758</v>
+        <v>261</v>
       </c>
       <c r="C464">
         <v>4</v>
@@ -6952,10 +6952,10 @@
         <v>33</v>
       </c>
       <c r="B465">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C465">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D465">
         <v>1</v>
@@ -6966,13 +6966,13 @@
         <v>33</v>
       </c>
       <c r="B466">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="C466">
         <v>4</v>
       </c>
       <c r="D466">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
@@ -6980,13 +6980,13 @@
         <v>33</v>
       </c>
       <c r="B467">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="C467">
         <v>2</v>
       </c>
       <c r="D467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
@@ -6994,13 +6994,13 @@
         <v>33</v>
       </c>
       <c r="B468">
-        <v>288</v>
+        <v>678</v>
       </c>
       <c r="C468">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D468">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -7008,13 +7008,13 @@
         <v>33</v>
       </c>
       <c r="B469">
-        <v>297</v>
+        <v>680</v>
       </c>
       <c r="C469">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D469">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
@@ -7022,13 +7022,13 @@
         <v>33</v>
       </c>
       <c r="B470">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C470">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D470">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
@@ -7036,13 +7036,13 @@
         <v>33</v>
       </c>
       <c r="B471">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="C471">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D471">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -7050,7 +7050,7 @@
         <v>33</v>
       </c>
       <c r="B472">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="C472">
         <v>2</v>
@@ -7064,13 +7064,13 @@
         <v>33</v>
       </c>
       <c r="B473">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="C473">
         <v>2</v>
       </c>
       <c r="D473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
@@ -7078,13 +7078,13 @@
         <v>33</v>
       </c>
       <c r="B474">
-        <v>688</v>
+        <v>745</v>
       </c>
       <c r="C474">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D474">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
@@ -7092,10 +7092,10 @@
         <v>33</v>
       </c>
       <c r="B475">
-        <v>691</v>
+        <v>749</v>
       </c>
       <c r="C475">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D475">
         <v>0</v>
@@ -7103,30 +7103,30 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B476">
-        <v>745</v>
+        <v>270</v>
       </c>
       <c r="C476">
         <v>1</v>
       </c>
       <c r="D476">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B477">
-        <v>749</v>
+        <v>295</v>
       </c>
       <c r="C477">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
@@ -7134,24 +7134,24 @@
         <v>34</v>
       </c>
       <c r="B478">
-        <v>270</v>
+        <v>680</v>
       </c>
       <c r="C478">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B479">
-        <v>295</v>
+        <v>684</v>
       </c>
       <c r="C479">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D479">
         <v>2</v>
@@ -7159,44 +7159,44 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B480">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="C480">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B481">
-        <v>684</v>
+        <v>284</v>
       </c>
       <c r="C481">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D481">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B482">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="C482">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
@@ -7204,13 +7204,13 @@
         <v>36</v>
       </c>
       <c r="B483">
-        <v>284</v>
+        <v>717</v>
       </c>
       <c r="C483">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
@@ -7218,7 +7218,7 @@
         <v>36</v>
       </c>
       <c r="B484">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="C484">
         <v>3</v>
@@ -7229,30 +7229,30 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B485">
-        <v>717</v>
+        <v>258</v>
       </c>
       <c r="C485">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B486">
-        <v>721</v>
+        <v>258</v>
       </c>
       <c r="C486">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
@@ -7260,38 +7260,38 @@
         <v>37</v>
       </c>
       <c r="B487">
-        <v>258</v>
+        <v>753</v>
       </c>
       <c r="C487">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D487">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B488">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="C488">
         <v>1</v>
       </c>
       <c r="D488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B489">
-        <v>753</v>
+        <v>682</v>
       </c>
       <c r="C489">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D489">
         <v>2</v>
@@ -7299,16 +7299,16 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B490">
-        <v>285</v>
+        <v>682</v>
       </c>
       <c r="C490">
         <v>1</v>
       </c>
       <c r="D490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
@@ -7316,13 +7316,13 @@
         <v>39</v>
       </c>
       <c r="B491">
-        <v>682</v>
+        <v>709</v>
       </c>
       <c r="C491">
         <v>1</v>
       </c>
       <c r="D491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
@@ -7330,7 +7330,7 @@
         <v>39</v>
       </c>
       <c r="B492">
-        <v>682</v>
+        <v>709</v>
       </c>
       <c r="C492">
         <v>1</v>
@@ -7344,13 +7344,13 @@
         <v>39</v>
       </c>
       <c r="B493">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="C493">
         <v>1</v>
       </c>
       <c r="D493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -7358,13 +7358,13 @@
         <v>39</v>
       </c>
       <c r="B494">
-        <v>709</v>
+        <v>733</v>
       </c>
       <c r="C494">
         <v>1</v>
       </c>
       <c r="D494">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -7372,13 +7372,13 @@
         <v>39</v>
       </c>
       <c r="B495">
-        <v>716</v>
+        <v>743</v>
       </c>
       <c r="C495">
         <v>1</v>
       </c>
       <c r="D495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
@@ -7386,45 +7386,17 @@
         <v>39</v>
       </c>
       <c r="B496">
-        <v>733</v>
+        <v>753</v>
       </c>
       <c r="C496">
         <v>1</v>
       </c>
       <c r="D496">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A497">
-        <v>39</v>
-      </c>
-      <c r="B497">
-        <v>743</v>
-      </c>
-      <c r="C497">
-        <v>1</v>
-      </c>
-      <c r="D497">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A498">
-        <v>39</v>
-      </c>
-      <c r="B498">
-        <v>753</v>
-      </c>
-      <c r="C498">
-        <v>1</v>
-      </c>
-      <c r="D498">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D498">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D496">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
